--- a/cm/DatatypeDef.xlsx
+++ b/cm/DatatypeDef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFEBDCB-3DD7-47D3-A8D3-CE2D25FE6910}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9510A7-5CED-4451-8553-60F8ACCFB622}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Built-in" sheetId="4" r:id="rId1"/>
@@ -88,7 +88,34 @@
           <t xml:space="preserve">
 Signed:1
 Unsigned:0
-有可能参与相减计算的量，都应该定义为Signed</t>
+有可能参与相减计算的量，或者默认定义为有符号的；
+对于确定不会为负，也不会参与运算，如系数，延时，累加等，定义为无符号的。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C03C745D-0393-4637-ACEE-F5EDA350694D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>周厅琳:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一般16位，少部分情况考虑8位或32位</t>
         </r>
       </text>
     </comment>
@@ -120,12 +147,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{4CFB0C21-C1A6-408D-8D4F-72638B3083FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>周厅琳:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Bias一般都设为0，可以减少CPU运算量</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -251,50 +304,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fac11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fac100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fac110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无单位系数，大致范围0~1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无单位系数，大致范围0~100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无单位系数，大致范围-1~1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atmospheric Temperature, K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TimeH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间，天数，大范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间，天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间，小时，大范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间，秒，分辨率0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间，秒，小范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Percent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间，毫秒，小范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间，微秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间，微秒，小范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百分比，0~100, %</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,66 +376,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电压，mV，分辨率1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压，V，小范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeDay2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeH4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeS4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VoltV2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间，微秒，分辨率0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fac1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无单位系数，大致范围-100~100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ratio100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ratio1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>比值，大致范围0~100, %</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,42 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无单位系数，大致范围0~50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time_mS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time_mS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time_mS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time_mS4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time_uS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time_uS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time_uS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time_uS4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Volt_mV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,34 +412,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mass_g2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mass_kg2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mass_kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PeriodS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeriodS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period_mS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period_mS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周期，秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,47 +424,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RPM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Velocity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Torque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mFlow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vFlow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pressure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -617,9 +470,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>HW_DIO_T</t>
-  </si>
-  <si>
     <t>TraGear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,10 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tempt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnvT_C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -652,34 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Density</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mMile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vMile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mileage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,10 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Concen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周期，毫秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,14 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Volt_mV2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mass_mg2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>质量，毫克，分辨率0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -762,10 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Current_A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电流，毫安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,26 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Current_uA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current_uA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流，微安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流，微安，分辨率0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>State2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,10 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>State4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -822,42 +596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无单位系数，大致范围-30~30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiDelay_mS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiDelay_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiDebncd_mS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiDebncd_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiON_mS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiON_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiON_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiON_Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>延迟时间，毫秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,10 +621,6 @@
   </si>
   <si>
     <t>累计时间，小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计时间，天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -908,6 +642,538 @@
   <si>
     <t>Description</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号系数，大致范围0~50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号系数，大致范围0~100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有符号系数，大致范围-1~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有符号系数，大致范围-30~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有符号系数，大致范围-100~100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fac_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fac_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fac_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号系数，大致范围0~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hours1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seconds4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seconds1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mSec1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mSec4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uSec1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uSec4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间，天数，分辨率0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay_ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debncd_ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debncd_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TON_ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TON_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TON_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period_s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period_ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period_ms1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压，mV，分辨率0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volt_mV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压，V，分辨率0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VoltV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass_mg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass_g1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass_kg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjMass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量，毫克/冲程或每次喷射，分辨率1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量流量，g/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量流量，kg/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length_cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度，米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度，毫米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度，厘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vol_m3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vol_cm3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vol_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vol_mL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积，立方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积，立方厘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积，升，立方分米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积，毫升，立方厘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area_m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area_mm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area_cm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积，平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积，平方毫米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积，平方厘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPM_k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转速，转每分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转速，千转每分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velocity_mps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velocity_kmph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度，米每秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度，千米每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accel_ms2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度，米每二次方秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭矩，NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mFlow_gps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mFlow_kgph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vFlow_m3ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积流量，立方米每秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Density_kgpm3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Density_gpcm3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度，kg/m3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度，g/cm3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angle_CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度，曲轴角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press_kpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压强，bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压强，千帕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度，摄氏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度，K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power_kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率，瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率，千瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy_J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy_kJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量，J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量，kJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离，里程，米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离，里程，千米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_km1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_km4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离，里程，千米，分辨率0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离，里程，千米，大范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height_cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concen_ppm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓度，百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓度，1/10^6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concen_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period_us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期，微秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机转速，转每分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECUState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INI(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUN(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFTERRUN(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1394,7 +1660,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1534,16 +1800,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
@@ -1624,7 +1890,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -1652,10 +1918,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1683,35 +1949,35 @@
         <v>33</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
       </c>
       <c r="D6" s="12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" s="12">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="F6" s="12">
         <v>0</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:G29" si="4">IF(C6,E6*(-2^(D6-1))+F6,0)</f>
+        <f t="shared" ref="G6:G25" si="4">IF(C6,E6*(-2^(D6-1))+F6,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" ref="H6:H29" si="5">IF(C6,E6*(2^(D6-1)-1)+F6,E6*(2^D6-1)+F6)</f>
-        <v>1.2750000000000001</v>
+        <f t="shared" ref="H6:H25" si="5">IF(C6,E6*(2^(D6-1)-1)+F6,E6*(2^D6-1)+F6)</f>
+        <v>6.5535000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C7" s="12">
         <v>0</v>
@@ -1736,10 +2002,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
@@ -1764,38 +2030,38 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" s="12">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="F9" s="12">
         <v>0</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="4"/>
-        <v>-1.28</v>
+        <v>-3.2768000000000002</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="5"/>
-        <v>1.27</v>
+        <v>3.2766999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -1820,10 +2086,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -1848,10 +2114,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
@@ -1876,10 +2142,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
@@ -1904,10 +2170,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12">
         <v>0</v>
@@ -1932,10 +2198,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
@@ -1960,10 +2226,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C16" s="12">
         <v>0</v>
@@ -1988,10 +2254,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -2016,16 +2282,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2035,19 +2301,19 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>-128</v>
+        <v>-32768</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="5"/>
-        <v>127</v>
+        <v>32767</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2072,38 +2338,38 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ref="G20" si="16">IF(C20,E20*(-2^(D20-1))+F20,0)</f>
-        <v>-128</v>
+        <v>-327.68</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ref="H20" si="17">IF(C20,E20*(2^(D20-1)-1)+F20,E20*(2^D20-1)+F20)</f>
-        <v>127</v>
+        <v>327.67</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2112,26 +2378,26 @@
         <v>16</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>-327.68</v>
+        <v>-3276.8</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="5"/>
-        <v>327.67</v>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2140,82 +2406,82 @@
         <v>16</v>
       </c>
       <c r="E22" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>-3276.8</v>
+        <v>-327.68</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="5"/>
-        <v>3276.7000000000003</v>
+        <v>327.67</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ref="G23" si="18">IF(C23,E23*(-2^(D23-1))+F23,0)</f>
+        <v>-3276.8</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ref="H23" si="19">IF(C23,E23*(2^(D23-1)-1)+F23,E23*(2^D23-1)+F23)</f>
+        <v>3276.7000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>32</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>0.01</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="4"/>
         <v>-21474836.48</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="1">
         <f t="shared" si="5"/>
         <v>21474836.469999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <f>IF(C24,E24*(-2^(D24-1))+F24,0)</f>
-        <v>-128</v>
-      </c>
-      <c r="H24" s="1">
-        <f>IF(C24,E24*(2^(D24-1)-1)+F24,E24*(2^D24-1)+F24)</f>
-        <v>127</v>
-      </c>
-    </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -2240,10 +2506,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -2258,20 +2524,20 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26" si="18">IF(C26,E26*(-2^(D26-1))+F26,0)</f>
+        <f t="shared" ref="G26" si="20">IF(C26,E26*(-2^(D26-1))+F26,0)</f>
         <v>-3276.8</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26" si="19">IF(C26,E26*(2^(D26-1)-1)+F26,E26*(2^D26-1)+F26)</f>
+        <f t="shared" ref="H26" si="21">IF(C26,E26*(2^(D26-1)-1)+F26,E26*(2^D26-1)+F26)</f>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -2286,48 +2552,48 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G27:G28" si="22">IF(C27,E27*(-2^(D27-1))+F27,0)</f>
         <v>-21474836.48</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H27:H28" si="23">IF(C27,E27*(2^(D27-1)-1)+F27,E27*(2^D27-1)+F27)</f>
         <v>21474836.469999999</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <f>IF(C28,E28*(-2^(D28-1))+F28,0)</f>
-        <v>-128</v>
+        <f t="shared" si="22"/>
+        <v>-327.68</v>
       </c>
       <c r="H28" s="1">
-        <f>IF(C28,E28*(2^(D28-1)-1)+F28,E28*(2^D28-1)+F28)</f>
-        <v>127</v>
+        <f t="shared" si="23"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2336,222 +2602,222 @@
         <v>16</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="4"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G29" si="24">IF(C29,E29*(-2^(D29-1))+F29,0)</f>
+        <v>-3276.8</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="5"/>
-        <v>327.67</v>
+        <f t="shared" ref="H29" si="25">IF(C29,E29*(2^(D29-1)-1)+F29,E29*(2^D29-1)+F29)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ref="G30:G43" si="26">IF(C30,E30*(-2^(D30-1))+F30,0)</f>
+        <v>-21474836.48</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30:H43" si="27">IF(C30,E30*(2^(D30-1)-1)+F30,E30*(2^D30-1)+F30)</f>
+        <v>21474836.469999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>16</v>
+      </c>
+      <c r="E31" s="14">
         <v>0.1</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" ref="G30" si="20">IF(C30,E30*(-2^(D30-1))+F30,0)</f>
-        <v>-3276.8</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ref="H30" si="21">IF(C30,E30*(2^(D30-1)-1)+F30,E30*(2^D30-1)+F30)</f>
-        <v>3276.7000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>32</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" ref="G31:G33" si="22">IF(C31,E31*(-2^(D31-1))+F31,0)</f>
-        <v>-21474836.48</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ref="H31:H33" si="23">IF(C31,E31*(2^(D31-1)-1)+F31,E31*(2^D31-1)+F31)</f>
-        <v>21474836.469999999</v>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="27"/>
+        <v>6553.5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="A32" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>16</v>
+      </c>
+      <c r="E32" s="14">
         <v>0.1</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <f>IF(C32,E32*(-2^(D32-1))+F32,0)</f>
-        <v>-12.8</v>
-      </c>
-      <c r="H32" s="1">
-        <f>IF(C32,E32*(2^(D32-1)-1)+F32,E32*(2^D32-1)+F32)</f>
-        <v>12.700000000000001</v>
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="27"/>
+        <v>6553.5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>16</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="22"/>
-        <v>-327.68</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="23"/>
-        <v>327.67</v>
+      <c r="A33" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14">
+        <v>16</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" ref="G33:G37" si="28">IF(C33,E33*(-2^(D33-1))+F33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" ref="H33:H37" si="29">IF(C33,E33*(2^(D33-1)-1)+F33,E33*(2^D33-1)+F33)</f>
+        <v>6553.5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>16</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="A34" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0</v>
+      </c>
+      <c r="D34" s="14">
+        <v>16</v>
+      </c>
+      <c r="E34" s="14">
         <v>0.1</v>
       </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ref="G34" si="24">IF(C34,E34*(-2^(D34-1))+F34,0)</f>
-        <v>-3276.8</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" ref="H34" si="25">IF(C34,E34*(2^(D34-1)-1)+F34,E34*(2^D34-1)+F34)</f>
-        <v>3276.7000000000003</v>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="29"/>
+        <v>6553.5</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>32</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" ref="G35:G48" si="26">IF(C35,E35*(-2^(D35-1))+F35,0)</f>
-        <v>-21474836.48</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ref="H35:H48" si="27">IF(C35,E35*(2^(D35-1)-1)+F35,E35*(2^D35-1)+F35)</f>
-        <v>21474836.469999999</v>
+      <c r="A35" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>16</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="29"/>
+        <v>6553.5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="14" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="C36" s="14">
         <v>0</v>
       </c>
       <c r="D36" s="14">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E36" s="14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F36" s="14">
         <v>0</v>
       </c>
       <c r="G36" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H36" s="14">
-        <f t="shared" si="27"/>
-        <v>255</v>
+        <f t="shared" si="29"/>
+        <v>6553.5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="14" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="C37" s="14">
         <v>0</v>
@@ -2560,306 +2826,306 @@
         <v>16</v>
       </c>
       <c r="E37" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="29"/>
+        <v>6553.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1">
         <v>0.01</v>
       </c>
-      <c r="F37" s="14">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14">
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="1">
         <f t="shared" si="27"/>
         <v>655.35</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="14">
-        <v>0</v>
-      </c>
-      <c r="D38" s="14">
-        <v>8</v>
-      </c>
-      <c r="E38" s="14">
-        <v>1</v>
-      </c>
-      <c r="F38" s="14">
-        <v>0</v>
-      </c>
-      <c r="G38" s="14">
-        <f t="shared" ref="G38:G43" si="28">IF(C38,E38*(-2^(D38-1))+F38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
-        <f t="shared" ref="H38:H43" si="29">IF(C38,E38*(2^(D38-1)-1)+F38,E38*(2^D38-1)+F38)</f>
-        <v>255</v>
-      </c>
-    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="14">
-        <v>0</v>
-      </c>
-      <c r="D39" s="14">
-        <v>16</v>
-      </c>
-      <c r="E39" s="14">
+      <c r="A39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="27"/>
+        <v>6553.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1">
         <v>0.01</v>
       </c>
-      <c r="F39" s="14">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="14">
-        <f t="shared" si="29"/>
-        <v>655.35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" s="14">
-        <v>0</v>
-      </c>
-      <c r="D40" s="14">
-        <v>16</v>
-      </c>
-      <c r="E40" s="14">
-        <v>1</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
-        <f t="shared" si="29"/>
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="14">
-        <v>0</v>
-      </c>
-      <c r="D41" s="14">
-        <v>16</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F41" s="14">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="14">
-        <f t="shared" si="29"/>
-        <v>6553.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="14">
-        <v>0</v>
-      </c>
-      <c r="D42" s="14">
-        <v>16</v>
-      </c>
-      <c r="E42" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="F42" s="14">
-        <v>0</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="14">
-        <f t="shared" si="29"/>
-        <v>655.35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0</v>
-      </c>
-      <c r="D43" s="14">
-        <v>32</v>
-      </c>
-      <c r="E43" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="F43" s="14">
-        <v>0</v>
-      </c>
-      <c r="G43" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
-        <f t="shared" si="29"/>
-        <v>42949672.950000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>16</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H40" s="1">
         <f t="shared" si="27"/>
         <v>655.35</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>16</v>
-      </c>
-      <c r="E45" s="1">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1">
         <v>0.1</v>
       </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H41" s="1">
         <f t="shared" si="27"/>
         <v>6553.5</v>
       </c>
     </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ref="G42" si="30">IF(C42,E42*(-2^(D42-1))+F42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" ref="H42" si="31">IF(C42,E42*(2^(D42-1)-1)+F42,E42*(2^D42-1)+F42)</f>
+        <v>6553.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13">
+        <v>16</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="26"/>
+        <v>-32768</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="27"/>
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13">
+        <v>16</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" ref="G44" si="32">IF(C44,E44*(-2^(D44-1))+F44,0)</f>
+        <v>-3276.8</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" ref="H44" si="33">IF(C44,E44*(2^(D44-1)-1)+F44,E44*(2^D44-1)+F44)</f>
+        <v>3276.7000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13">
+        <v>16</v>
+      </c>
+      <c r="E45" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" ref="G45" si="34">IF(C45,E45*(-2^(D45-1))+F45,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" ref="H45" si="35">IF(C45,E45*(2^(D45-1)-1)+F45,E45*(2^D45-1)+F45)</f>
+        <v>327.67</v>
+      </c>
+    </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>16</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="27"/>
-        <v>655.35</v>
+      <c r="A46" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13">
+        <v>16</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" ref="G46:G52" si="36">IF(C46,E46*(-2^(D46-1))+F46,0)</f>
+        <v>-3276.8</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" ref="H46:H52" si="37">IF(C46,E46*(2^(D46-1)-1)+F46,E46*(2^D46-1)+F46)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>16</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="27"/>
-        <v>6553.5</v>
+      <c r="A47" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
+        <v>16</v>
+      </c>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="36"/>
+        <v>-32768</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" si="37"/>
+        <v>32767</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C48" s="13">
         <v>1</v>
@@ -2874,20 +3140,20 @@
         <v>0</v>
       </c>
       <c r="G48" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>-3276.8</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="13" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C49" s="13">
         <v>1</v>
@@ -2896,32 +3162,32 @@
         <v>16</v>
       </c>
       <c r="E49" s="13">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F49" s="13">
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <f t="shared" ref="G49" si="30">IF(C49,E49*(-2^(D49-1))+F49,0)</f>
-        <v>-32768</v>
+        <f t="shared" ref="G49:G50" si="38">IF(C49,E49*(-2^(D49-1))+F49,0)</f>
+        <v>-327.68</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" ref="H49" si="31">IF(C49,E49*(2^(D49-1)-1)+F49,E49*(2^D49-1)+F49)</f>
-        <v>32767</v>
+        <f t="shared" ref="H49:H50" si="39">IF(C49,E49*(2^(D49-1)-1)+F49,E49*(2^D49-1)+F49)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="13" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E50" s="13">
         <v>0.1</v>
@@ -2930,216 +3196,216 @@
         <v>0</v>
       </c>
       <c r="G50" s="13">
-        <f t="shared" ref="G50" si="32">IF(C50,E50*(-2^(D50-1))+F50,0)</f>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>-3276.8</v>
       </c>
       <c r="H50" s="13">
-        <f t="shared" ref="H50" si="33">IF(C50,E50*(2^(D50-1)-1)+F50,E50*(2^D50-1)+F50)</f>
-        <v>25.5</v>
+        <f t="shared" si="39"/>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="13">
-        <v>1</v>
-      </c>
-      <c r="D51" s="13">
-        <v>16</v>
-      </c>
-      <c r="E51" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="F51" s="13">
-        <v>0</v>
-      </c>
-      <c r="G51" s="13">
-        <f t="shared" ref="G51:G59" si="34">IF(C51,E51*(-2^(D51-1))+F51,0)</f>
-        <v>-327.68</v>
-      </c>
-      <c r="H51" s="13">
-        <f t="shared" ref="H51:H59" si="35">IF(C51,E51*(2^(D51-1)-1)+F51,E51*(2^D51-1)+F51)</f>
-        <v>327.67</v>
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="36"/>
+        <v>-32768</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="37"/>
+        <v>32767</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="13">
-        <v>1</v>
-      </c>
-      <c r="D52" s="13">
-        <v>16</v>
-      </c>
-      <c r="E52" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="F52" s="13">
-        <v>0</v>
-      </c>
-      <c r="G52" s="13">
-        <f t="shared" ref="G52:G53" si="36">IF(C52,E52*(-2^(D52-1))+F52,0)</f>
-        <v>-327.68</v>
-      </c>
-      <c r="H52" s="13">
-        <f t="shared" ref="H52:H53" si="37">IF(C52,E52*(2^(D52-1)-1)+F52,E52*(2^D52-1)+F52)</f>
-        <v>327.67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1</v>
-      </c>
-      <c r="D53" s="13">
-        <v>16</v>
-      </c>
-      <c r="E53" s="13">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1">
         <v>0.1</v>
       </c>
-      <c r="F53" s="13">
-        <v>0</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="36"/>
         <v>-3276.8</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H52" s="1">
         <f t="shared" si="37"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" ref="G53:G58" si="40">IF(C53,E53*(-2^(D53-1))+F53,0)</f>
+        <v>-32768</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" ref="H53:H58" si="41">IF(C53,E53*(2^(D53-1)-1)+F53,E53*(2^D53-1)+F53)</f>
+        <v>32767</v>
+      </c>
+    </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="13">
-        <v>1</v>
-      </c>
-      <c r="D54" s="13">
-        <v>16</v>
-      </c>
-      <c r="E54" s="13">
+      <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="40"/>
+        <v>-3276.8</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="41"/>
+        <v>3276.7000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>32</v>
+      </c>
+      <c r="E55" s="1">
         <v>0.01</v>
       </c>
-      <c r="F54" s="13">
-        <v>0</v>
-      </c>
-      <c r="G54" s="13">
-        <f t="shared" si="34"/>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" ref="G55" si="42">IF(C55,E55*(-2^(D55-1))+F55,0)</f>
+        <v>-21474836.48</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" ref="H55" si="43">IF(C55,E55*(2^(D55-1)-1)+F55,E55*(2^D55-1)+F55)</f>
+        <v>21474836.469999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>16</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="40"/>
         <v>-327.68</v>
       </c>
-      <c r="H54" s="13">
-        <f t="shared" si="35"/>
+      <c r="H56" s="1">
+        <f t="shared" si="41"/>
         <v>327.67</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="13">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13">
-        <v>16</v>
-      </c>
-      <c r="E55" s="13">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1">
         <v>0.1</v>
       </c>
-      <c r="F55" s="13">
-        <v>0</v>
-      </c>
-      <c r="G55" s="13">
-        <f t="shared" si="34"/>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="40"/>
         <v>-3276.8</v>
       </c>
-      <c r="H55" s="13">
-        <f t="shared" si="35"/>
-        <v>3276.7000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="13">
-        <v>1</v>
-      </c>
-      <c r="D56" s="13">
-        <v>16</v>
-      </c>
-      <c r="E56" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="F56" s="13">
-        <v>0</v>
-      </c>
-      <c r="G56" s="13">
-        <f t="shared" ref="G56:G57" si="38">IF(C56,E56*(-2^(D56-1))+F56,0)</f>
-        <v>-327.68</v>
-      </c>
-      <c r="H56" s="13">
-        <f t="shared" ref="H56:H57" si="39">IF(C56,E56*(2^(D56-1)-1)+F56,E56*(2^D56-1)+F56)</f>
-        <v>327.67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="13">
-        <v>1</v>
-      </c>
-      <c r="D57" s="13">
-        <v>16</v>
-      </c>
-      <c r="E57" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F57" s="13">
-        <v>0</v>
-      </c>
-      <c r="G57" s="13">
-        <f t="shared" si="38"/>
-        <v>-3276.8</v>
-      </c>
-      <c r="H57" s="13">
-        <f t="shared" si="39"/>
+      <c r="H57" s="1">
+        <f t="shared" si="41"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3154,20 +3420,20 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>-327.68</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3182,20 +3448,20 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="G59" si="44">IF(C59,E59*(-2^(D59-1))+F59,0)</f>
         <v>-3276.8</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="H59" si="45">IF(C59,E59*(2^(D59-1)-1)+F59,E59*(2^D59-1)+F59)</f>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3204,26 +3470,26 @@
         <v>16</v>
       </c>
       <c r="E60" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" ref="G60:G65" si="40">IF(C60,E60*(-2^(D60-1))+F60,0)</f>
-        <v>-327.68</v>
+        <f t="shared" ref="G60:G62" si="46">IF(C60,E60*(-2^(D60-1))+F60,0)</f>
+        <v>-32768</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" ref="H60:H65" si="41">IF(C60,E60*(2^(D60-1)-1)+F60,E60*(2^D60-1)+F60)</f>
-        <v>327.67</v>
+        <f t="shared" ref="H60:H62" si="47">IF(C60,E60*(2^(D60-1)-1)+F60,E60*(2^D60-1)+F60)</f>
+        <v>32767</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3232,54 +3498,54 @@
         <v>16</v>
       </c>
       <c r="E61" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="40"/>
-        <v>-3276.8</v>
+        <f t="shared" si="46"/>
+        <v>-327.68</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="41"/>
-        <v>3276.7000000000003</v>
+        <f t="shared" si="47"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" ref="G62" si="42">IF(C62,E62*(-2^(D62-1))+F62,0)</f>
-        <v>-21474836.48</v>
+        <f t="shared" si="46"/>
+        <v>-3276.8</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" ref="H62" si="43">IF(C62,E62*(2^(D62-1)-1)+F62,E62*(2^D62-1)+F62)</f>
-        <v>21474836.469999999</v>
+        <f t="shared" si="47"/>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3288,26 +3554,26 @@
         <v>16</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="40"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G63" si="48">IF(C63,E63*(-2^(D63-1))+F63,0)</f>
+        <v>-3276.8</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="41"/>
-        <v>327.67</v>
+        <f t="shared" ref="H63" si="49">IF(C63,E63*(2^(D63-1)-1)+F63,E63*(2^D63-1)+F63)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3322,20 +3588,20 @@
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="G64:G68" si="50">IF(C64,E64*(-2^(D64-1))+F64,0)</f>
         <v>-3276.8</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="H64:H68" si="51">IF(C64,E64*(2^(D64-1)-1)+F64,E64*(2^D64-1)+F64)</f>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3344,26 +3610,26 @@
         <v>16</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="40"/>
-        <v>-327.68</v>
+        <f t="shared" si="50"/>
+        <v>-3276.8</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="41"/>
-        <v>327.67</v>
+        <f t="shared" si="51"/>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3372,118 +3638,998 @@
         <v>16</v>
       </c>
       <c r="E66" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" ref="G66" si="44">IF(C66,E66*(-2^(D66-1))+F66,0)</f>
-        <v>-3276.8</v>
+        <f t="shared" si="50"/>
+        <v>-327.68</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66" si="45">IF(C66,E66*(2^(D66-1)-1)+F66,E66*(2^D66-1)+F66)</f>
-        <v>3276.7000000000003</v>
+        <f t="shared" si="51"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>168</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="50"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="51"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>16</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="50"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="51"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>106</v>
+        <v>233</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>16</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" ref="G69:G71" si="52">IF(C69,E69*(-2^(D69-1))+F69,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" ref="H69:H71" si="53">IF(C69,E69*(2^(D69-1)-1)+F69,E69*(2^D69-1)+F69)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>107</v>
+        <v>234</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>16</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="52"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="53"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>108</v>
+        <v>235</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>16</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="52"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="53"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>109</v>
+        <v>173</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>16</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" ref="G72:G75" si="54">IF(C72,E72*(-2^(D72-1))+F72,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" ref="H72:H75" si="55">IF(C72,E72*(2^(D72-1)-1)+F72,E72*(2^D72-1)+F72)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>110</v>
+        <v>174</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>16</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="54"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="55"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>111</v>
+        <v>175</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>16</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="54"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="55"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>113</v>
+        <v>176</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>16</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="54"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="55"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>114</v>
+        <v>181</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>16</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" ref="G76:G79" si="56">IF(C76,E76*(-2^(D76-1))+F76,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" ref="H76:H79" si="57">IF(C76,E76*(2^(D76-1)-1)+F76,E76*(2^D76-1)+F76)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>135</v>
+        <v>182</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>16</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="56"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="57"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>115</v>
+        <v>183</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>16</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="56"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="57"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>132</v>
+        <v>64</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>16</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="56"/>
+        <v>-3276.8</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="57"/>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>244</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>16</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" ref="G80:G81" si="58">IF(C80,E80*(-2^(D80-1))+F80,0)</f>
+        <v>-16384</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" ref="H80:H81" si="59">IF(C80,E80*(2^(D80-1)-1)+F80,E80*(2^D80-1)+F80)</f>
+        <v>16383.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>187</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>16</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="58"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="59"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>16</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" ref="G82:G83" si="60">IF(C82,E82*(-2^(D82-1))+F82,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" ref="H82:H83" si="61">IF(C82,E82*(2^(D82-1)-1)+F82,E82*(2^D82-1)+F82)</f>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>191</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>16</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="60"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="61"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>16</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" ref="G84" si="62">IF(C84,E84*(-2^(D84-1))+F84,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" ref="H84" si="63">IF(C84,E84*(2^(D84-1)-1)+F84,E84*(2^D84-1)+F84)</f>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>196</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>16</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" ref="G85:G86" si="64">IF(C85,E85*(-2^(D85-1))+F85,0)</f>
+        <v>-3276.8</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" ref="H85:H86" si="65">IF(C85,E85*(2^(D85-1)-1)+F85,E85*(2^D85-1)+F85)</f>
+        <v>3276.7000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>141</v>
+        <v>65</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>16</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="64"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="65"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>16</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" ref="G87:G89" si="66">IF(C87,E87*(-2^(D87-1))+F87,0)</f>
+        <v>-1638.4</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" ref="H87:H89" si="67">IF(C87,E87*(2^(D87-1)-1)+F87,E87*(2^D87-1)+F87)</f>
+        <v>1638.3500000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>16</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="66"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="67"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>16</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="66"/>
+        <v>-655.36</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="67"/>
+        <v>655.34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>16</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" ref="G90:G93" si="68">IF(C90,E90*(-2^(D90-1))+F90,0)</f>
+        <v>-3276.8</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" ref="H90:H93" si="69">IF(C90,E90*(2^(D90-1)-1)+F90,E90*(2^D90-1)+F90)</f>
+        <v>3276.7000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>16</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="68"/>
+        <v>-3276.8</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="69"/>
+        <v>3276.7000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>16</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="68"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="69"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>16</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="68"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="69"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>16</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" ref="G94:G95" si="70">IF(C94,E94*(-2^(D94-1))+F94,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" ref="H94:H95" si="71">IF(C94,E94*(2^(D94-1)-1)+F94,E94*(2^D94-1)+F94)</f>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>16</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="70"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="71"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>16</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" ref="G96:G97" si="72">IF(C96,E96*(-2^(D96-1))+F96,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" ref="H96:H97" si="73">IF(C96,E96*(2^(D96-1)-1)+F96,E96*(2^D96-1)+F96)</f>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>16</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="72"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="73"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>16</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" ref="G98" si="74">IF(C98,E98*(-2^(D98-1))+F98,0)</f>
+        <v>-3276.8</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" ref="H98" si="75">IF(C98,E98*(2^(D98-1)-1)+F98,E98*(2^D98-1)+F98)</f>
+        <v>3276.7000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>32</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" ref="G99:G100" si="76">IF(C99,E99*(-2^(D99-1))+F99,0)</f>
+        <v>-214748364.80000001</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" ref="H99:H100" si="77">IF(C99,E99*(2^(D99-1)-1)+F99,E99*(2^D99-1)+F99)</f>
+        <v>214748364.70000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>16</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="76"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="77"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>16</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" ref="G101" si="78">IF(C101,E101*(-2^(D101-1))+F101,0)</f>
+        <v>-3276.8</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" ref="H101" si="79">IF(C101,E101*(2^(D101-1)-1)+F101,E101*(2^D101-1)+F101)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3504,9 +4650,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3566,32 +4712,49 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3604,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3618,26 +4781,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
@@ -3645,58 +4808,58 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/cm/DatatypeDef.xlsx
+++ b/cm/DatatypeDef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9510A7-5CED-4451-8553-60F8ACCFB622}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF564DA-0A8B-4614-8FD2-7507D30E6FCE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Built-in" sheetId="4" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="282">
   <si>
     <t>Name</t>
   </si>
@@ -377,10 +377,6 @@
   </si>
   <si>
     <t>时间，微秒，分辨率0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ratio100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -924,14 +920,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Velocity_mps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Velocity_kmph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>速度，米每秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -964,14 +952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vFlow_m3ps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积流量，立方米每秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Density_kgpm3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,23 +1136,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ECUState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFF(0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INI(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUN(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AFTERRUN(3)</t>
+    <t>档位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECU针脚号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态，每一位位代表不同的含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vFlow_m3ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积流量，立方米每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭矩变化率，NM/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torq_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPM_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转速变化率，转每分钟每秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机转速变化率，转每分钟每秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERPM_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_mps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_kmph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press_bar1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vFlow_mm3ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积流量，立方豪米每秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比变化率，0~100, %/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volt_mV_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压变化率，mV/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EpmSynState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_SYNC(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_SYNC(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRS_SYNC(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRA_MT(0)</t>
+  </si>
+  <si>
+    <t>TRA_AT(1)</t>
+  </si>
+  <si>
+    <t>TRA_DCT(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALF_SYNC(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAS_SYNC(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRA_CVT(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRA_AMT(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerOFF(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerON(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerLatch(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECUPowerState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1180,7 +1294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,6 +1368,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1313,7 +1432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,6 +1495,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,7 +1782,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1800,11 +1922,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1890,7 +2012,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -1918,7 +2040,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -1949,7 +2071,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
@@ -1964,20 +2086,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:G25" si="4">IF(C6,E6*(-2^(D6-1))+F6,0)</f>
+        <f t="shared" ref="G6:G26" si="4">IF(C6,E6*(-2^(D6-1))+F6,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" ref="H6:H25" si="5">IF(C6,E6*(2^(D6-1)-1)+F6,E6*(2^D6-1)+F6)</f>
+        <f t="shared" ref="H6:H26" si="5">IF(C6,E6*(2^(D6-1)-1)+F6,E6*(2^D6-1)+F6)</f>
         <v>6.5535000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="12">
         <v>0</v>
@@ -2005,7 +2127,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
@@ -2030,10 +2152,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -2058,10 +2180,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -2086,10 +2208,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -2142,10 +2264,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
@@ -2154,166 +2276,166 @@
         <v>16</v>
       </c>
       <c r="E13" s="12">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F13" s="12">
         <v>0</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" ref="G13:G15" si="10">IF(C13,E13*(-2^(D13-1))+F13,0)</f>
-        <v>-163.84</v>
+        <f t="shared" ref="G13" si="10">IF(C13,E13*(-2^(D13-1))+F13,0)</f>
+        <v>-327.68</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" ref="H13:H15" si="11">IF(C13,E13*(2^(D13-1)-1)+F13,E13*(2^D13-1)+F13)</f>
-        <v>163.83500000000001</v>
+        <f t="shared" ref="H13" si="11">IF(C13,E13*(2^(D13-1)-1)+F13,E13*(2^D13-1)+F13)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="12">
         <v>16</v>
       </c>
       <c r="E14" s="12">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F14" s="12">
         <v>0</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="G14:G16" si="12">IF(C14,E14*(-2^(D14-1))+F14,0)</f>
+        <v>-163.84</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="11"/>
-        <v>131.07</v>
+        <f t="shared" ref="H14:H16" si="13">IF(C14,E14*(2^(D14-1)-1)+F14,E14*(2^D14-1)+F14)</f>
+        <v>163.83500000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
         <v>16</v>
       </c>
       <c r="E15" s="12">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F15" s="12">
         <v>0</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="10"/>
-        <v>-163.84</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="11"/>
-        <v>163.83500000000001</v>
+        <f t="shared" si="13"/>
+        <v>131.07</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="12">
         <v>16</v>
       </c>
       <c r="E16" s="12">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" ref="G16" si="12">IF(C16,E16*(-2^(D16-1))+F16,0)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-163.84</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" ref="H16" si="13">IF(C16,E16*(2^(D16-1)-1)+F16,E16*(2^D16-1)+F16)</f>
-        <v>131.07</v>
+        <f t="shared" si="13"/>
+        <v>163.83500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="12">
         <v>16</v>
       </c>
       <c r="E17" s="12">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F17" s="12">
         <v>0</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" ref="G17" si="14">IF(C17,E17*(-2^(D17-1))+F17,0)</f>
-        <v>-163.84</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" si="15">IF(C17,E17*(2^(D17-1)-1)+F17,E17*(2^D17-1)+F17)</f>
+        <v>131.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>16</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" ref="G18" si="16">IF(C18,E18*(-2^(D18-1))+F18,0)</f>
+        <v>-163.84</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" ref="H18" si="17">IF(C18,E18*(2^(D18-1)-1)+F18,E18*(2^D18-1)+F18)</f>
         <v>163.83500000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="4"/>
-        <v>-32768</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="5"/>
-        <v>32767</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2328,20 +2450,20 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f>IF(C19,E19*(-2^(D19-1))+F19,0)</f>
+        <f t="shared" si="4"/>
         <v>-3276.8</v>
       </c>
       <c r="H19" s="1">
-        <f>IF(C19,E19*(2^(D19-1)-1)+F19,E19*(2^D19-1)+F19)</f>
+        <f t="shared" si="5"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2350,82 +2472,82 @@
         <v>16</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20" si="16">IF(C20,E20*(-2^(D20-1))+F20,0)</f>
-        <v>-327.68</v>
+        <f>IF(C20,E20*(-2^(D20-1))+F20,0)</f>
+        <v>-32768</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20" si="17">IF(C20,E20*(2^(D20-1)-1)+F20,E20*(2^D20-1)+F20)</f>
-        <v>327.67</v>
+        <f>IF(C20,E20*(2^(D20-1)-1)+F20,E20*(2^D20-1)+F20)</f>
+        <v>32767</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ref="G21" si="18">IF(C21,E21*(-2^(D21-1))+F21,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21" si="19">IF(C21,E21*(2^(D21-1)-1)+F21,E21*(2^D21-1)+F21)</f>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.1</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="4"/>
         <v>-3276.8</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="5"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="4"/>
-        <v>-327.68</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="5"/>
-        <v>327.67</v>
-      </c>
-    </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -2440,11 +2562,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23" si="18">IF(C23,E23*(-2^(D23-1))+F23,0)</f>
+        <f t="shared" si="4"/>
         <v>-3276.8</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" ref="H23" si="19">IF(C23,E23*(2^(D23-1)-1)+F23,E23*(2^D23-1)+F23)</f>
+        <f t="shared" si="5"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
@@ -2453,63 +2575,63 @@
         <v>135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="4"/>
-        <v>-21474836.48</v>
+        <f t="shared" ref="G24" si="20">IF(C24,E24*(-2^(D24-1))+F24,0)</f>
+        <v>-32768</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="5"/>
-        <v>21474836.469999999</v>
+        <f t="shared" ref="H24" si="21">IF(C24,E24*(2^(D24-1)-1)+F24,E24*(2^D24-1)+F24)</f>
+        <v>32767</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>-327.68</v>
+        <v>-214748364.80000001</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="5"/>
-        <v>327.67</v>
+        <v>214748364.70000002</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -2524,76 +2646,76 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26" si="20">IF(C26,E26*(-2^(D26-1))+F26,0)</f>
+        <f t="shared" si="4"/>
         <v>-3276.8</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26" si="21">IF(C26,E26*(2^(D26-1)-1)+F26,E26*(2^D26-1)+F26)</f>
+        <f t="shared" si="5"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ref="G27:G28" si="22">IF(C27,E27*(-2^(D27-1))+F27,0)</f>
-        <v>-21474836.48</v>
+        <f t="shared" ref="G27" si="22">IF(C27,E27*(-2^(D27-1))+F27,0)</f>
+        <v>-32768</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H28" si="23">IF(C27,E27*(2^(D27-1)-1)+F27,E27*(2^D27-1)+F27)</f>
-        <v>21474836.469999999</v>
+        <f t="shared" ref="H27" si="23">IF(C27,E27*(2^(D27-1)-1)+F27,E27*(2^D27-1)+F27)</f>
+        <v>32767</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="22"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G28:G29" si="24">IF(C28,E28*(-2^(D28-1))+F28,0)</f>
+        <v>-214748364.80000001</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="23"/>
-        <v>327.67</v>
+        <f t="shared" ref="H28:H29" si="25">IF(C28,E28*(2^(D28-1)-1)+F28,E28*(2^D28-1)+F28)</f>
+        <v>214748364.70000002</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2608,76 +2730,76 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29" si="24">IF(C29,E29*(-2^(D29-1))+F29,0)</f>
+        <f t="shared" si="24"/>
         <v>-3276.8</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29" si="25">IF(C29,E29*(2^(D29-1)-1)+F29,E29*(2^D29-1)+F29)</f>
+        <f t="shared" si="25"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ref="G30" si="26">IF(C30,E30*(-2^(D30-1))+F30,0)</f>
+        <v>-32768</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30" si="27">IF(C30,E30*(2^(D30-1)-1)+F30,E30*(2^D30-1)+F30)</f>
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
         <v>32</v>
       </c>
-      <c r="E30" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" ref="G30:G43" si="26">IF(C30,E30*(-2^(D30-1))+F30,0)</f>
-        <v>-21474836.48</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ref="H30:H43" si="27">IF(C30,E30*(2^(D30-1)-1)+F30,E30*(2^D30-1)+F30)</f>
-        <v>21474836.469999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0</v>
-      </c>
-      <c r="D31" s="14">
-        <v>16</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="E31" s="1">
         <v>0.1</v>
       </c>
-      <c r="F31" s="14">
-        <v>0</v>
-      </c>
-      <c r="G31" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="14">
-        <f t="shared" si="27"/>
-        <v>6553.5</v>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ref="G31:G44" si="28">IF(C31,E31*(-2^(D31-1))+F31,0)</f>
+        <v>-214748364.80000001</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ref="H31:H44" si="29">IF(C31,E31*(2^(D31-1)-1)+F31,E31*(2^D31-1)+F31)</f>
+        <v>214748364.70000002</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="14">
         <v>0</v>
@@ -2692,20 +2814,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6553.5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" s="14">
         <v>0</v>
@@ -2720,20 +2842,20 @@
         <v>0</v>
       </c>
       <c r="G33" s="14">
-        <f t="shared" ref="G33:G37" si="28">IF(C33,E33*(-2^(D33-1))+F33,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H33" s="14">
-        <f t="shared" ref="H33:H37" si="29">IF(C33,E33*(2^(D33-1)-1)+F33,E33*(2^D33-1)+F33)</f>
+        <f t="shared" si="29"/>
         <v>6553.5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="14">
         <v>0</v>
@@ -2748,272 +2870,272 @@
         <v>0</v>
       </c>
       <c r="G34" s="14">
+        <f t="shared" ref="G34:G38" si="30">IF(C34,E34*(-2^(D34-1))+F34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" ref="H34:H38" si="31">IF(C34,E34*(2^(D34-1)-1)+F34,E34*(2^D34-1)+F34)</f>
+        <v>6553.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>16</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="31"/>
+        <v>6553.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0</v>
+      </c>
+      <c r="D36" s="14">
+        <v>16</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="31"/>
+        <v>6553.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0</v>
+      </c>
+      <c r="D37" s="14">
+        <v>16</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="31"/>
+        <v>6553.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
+        <v>16</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="31"/>
+        <v>6553.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H39" s="1">
+        <f t="shared" si="29"/>
+        <v>655.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="29"/>
         <v>6553.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="14">
-        <v>0</v>
-      </c>
-      <c r="D35" s="14">
-        <v>16</v>
-      </c>
-      <c r="E35" s="14">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="29"/>
+        <v>655.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1">
         <v>0.1</v>
       </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14">
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H42" s="1">
         <f t="shared" si="29"/>
         <v>6553.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="14">
-        <v>0</v>
-      </c>
-      <c r="D36" s="14">
-        <v>16</v>
-      </c>
-      <c r="E36" s="14">
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1">
         <v>0.1</v>
       </c>
-      <c r="F36" s="14">
-        <v>0</v>
-      </c>
-      <c r="G36" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="14">
-        <f t="shared" si="29"/>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ref="G43" si="32">IF(C43,E43*(-2^(D43-1))+F43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" ref="H43" si="33">IF(C43,E43*(2^(D43-1)-1)+F43,E43*(2^D43-1)+F43)</f>
         <v>6553.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="14">
-        <v>0</v>
-      </c>
-      <c r="D37" s="14">
-        <v>16</v>
-      </c>
-      <c r="E37" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F37" s="14">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
-        <f t="shared" si="29"/>
-        <v>6553.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>16</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="27"/>
-        <v>655.35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>16</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="27"/>
-        <v>6553.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>16</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="27"/>
-        <v>655.35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>16</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="27"/>
-        <v>6553.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>16</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" ref="G42" si="30">IF(C42,E42*(-2^(D42-1))+F42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" ref="H42" si="31">IF(C42,E42*(2^(D42-1)-1)+F42,E42*(2^D42-1)+F42)</f>
-        <v>6553.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="13">
-        <v>1</v>
-      </c>
-      <c r="D43" s="13">
-        <v>16</v>
-      </c>
-      <c r="E43" s="13">
-        <v>1</v>
-      </c>
-      <c r="F43" s="13">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
-        <f t="shared" si="26"/>
-        <v>-32768</v>
-      </c>
-      <c r="H43" s="13">
-        <f t="shared" si="27"/>
-        <v>32767</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="13" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="C44" s="13">
         <v>1</v>
@@ -3022,26 +3144,26 @@
         <v>16</v>
       </c>
       <c r="E44" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F44" s="13">
         <v>0</v>
       </c>
       <c r="G44" s="13">
-        <f t="shared" ref="G44" si="32">IF(C44,E44*(-2^(D44-1))+F44,0)</f>
-        <v>-3276.8</v>
+        <f t="shared" si="28"/>
+        <v>-32768</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" ref="H44" si="33">IF(C44,E44*(2^(D44-1)-1)+F44,E44*(2^D44-1)+F44)</f>
-        <v>3276.7000000000003</v>
+        <f t="shared" si="29"/>
+        <v>32767</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="13" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C45" s="13">
         <v>1</v>
@@ -3050,26 +3172,26 @@
         <v>16</v>
       </c>
       <c r="E45" s="13">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F45" s="13">
         <v>0</v>
       </c>
       <c r="G45" s="13">
-        <f t="shared" ref="G45" si="34">IF(C45,E45*(-2^(D45-1))+F45,0)</f>
-        <v>-327.68</v>
+        <f t="shared" ref="G45:G46" si="34">IF(C45,E45*(-2^(D45-1))+F45,0)</f>
+        <v>-3276.8</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" ref="H45" si="35">IF(C45,E45*(2^(D45-1)-1)+F45,E45*(2^D45-1)+F45)</f>
-        <v>327.67</v>
+        <f t="shared" ref="H45:H46" si="35">IF(C45,E45*(2^(D45-1)-1)+F45,E45*(2^D45-1)+F45)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="13" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="C46" s="13">
         <v>1</v>
@@ -3078,26 +3200,26 @@
         <v>16</v>
       </c>
       <c r="E46" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F46" s="13">
         <v>0</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" ref="G46:G52" si="36">IF(C46,E46*(-2^(D46-1))+F46,0)</f>
-        <v>-3276.8</v>
+        <f t="shared" si="34"/>
+        <v>-32768</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" ref="H46:H52" si="37">IF(C46,E46*(2^(D46-1)-1)+F46,E46*(2^D46-1)+F46)</f>
-        <v>3276.7000000000003</v>
+        <f t="shared" si="35"/>
+        <v>32767</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="13" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C47" s="13">
         <v>1</v>
@@ -3106,26 +3228,26 @@
         <v>16</v>
       </c>
       <c r="E47" s="13">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F47" s="13">
         <v>0</v>
       </c>
       <c r="G47" s="13">
-        <f t="shared" si="36"/>
-        <v>-32768</v>
+        <f t="shared" ref="G47" si="36">IF(C47,E47*(-2^(D47-1))+F47,0)</f>
+        <v>-327.68</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="37"/>
-        <v>32767</v>
+        <f t="shared" ref="H47" si="37">IF(C47,E47*(2^(D47-1)-1)+F47,E47*(2^D47-1)+F47)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="13" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C48" s="13">
         <v>1</v>
@@ -3140,21 +3262,21 @@
         <v>0</v>
       </c>
       <c r="G48" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="G48:G54" si="38">IF(C48,E48*(-2^(D48-1))+F48,0)</f>
         <v>-3276.8</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="H48:H54" si="39">IF(C48,E48*(2^(D48-1)-1)+F48,E48*(2^D48-1)+F48)</f>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="C49" s="13">
         <v>1</v>
       </c>
@@ -3162,26 +3284,26 @@
         <v>16</v>
       </c>
       <c r="E49" s="13">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F49" s="13">
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <f t="shared" ref="G49:G50" si="38">IF(C49,E49*(-2^(D49-1))+F49,0)</f>
-        <v>-327.68</v>
+        <f t="shared" si="38"/>
+        <v>-32768</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" ref="H49:H50" si="39">IF(C49,E49*(2^(D49-1)-1)+F49,E49*(2^D49-1)+F49)</f>
-        <v>327.67</v>
+        <f t="shared" si="39"/>
+        <v>32767</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="13" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="13">
         <v>1</v>
@@ -3205,67 +3327,67 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>16</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" si="36"/>
-        <v>-32768</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="37"/>
-        <v>32767</v>
+      <c r="A51" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13">
+        <v>16</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" ref="G51:G52" si="40">IF(C51,E51*(-2^(D51-1))+F51,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" ref="H51:H52" si="41">IF(C51,E51*(2^(D51-1)-1)+F51,E51*(2^D51-1)+F51)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>16</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="A52" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>16</v>
+      </c>
+      <c r="E52" s="13">
         <v>0.1</v>
       </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="36"/>
+      <c r="F52" s="13">
+        <v>0</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" si="40"/>
         <v>-3276.8</v>
       </c>
-      <c r="H52" s="1">
-        <f t="shared" si="37"/>
+      <c r="H52" s="13">
+        <f t="shared" si="41"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -3280,20 +3402,20 @@
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" ref="G53:G58" si="40">IF(C53,E53*(-2^(D53-1))+F53,0)</f>
+        <f t="shared" si="38"/>
         <v>-32768</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" ref="H53:H58" si="41">IF(C53,E53*(2^(D53-1)-1)+F53,E53*(2^D53-1)+F53)</f>
+        <f t="shared" si="39"/>
         <v>32767</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -3308,48 +3430,48 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-3276.8</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" ref="G55" si="42">IF(C55,E55*(-2^(D55-1))+F55,0)</f>
-        <v>-21474836.48</v>
+        <f t="shared" ref="G55:G60" si="42">IF(C55,E55*(-2^(D55-1))+F55,0)</f>
+        <v>-32768</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" ref="H55" si="43">IF(C55,E55*(2^(D55-1)-1)+F55,E55*(2^D55-1)+F55)</f>
-        <v>21474836.469999999</v>
+        <f t="shared" ref="H55:H60" si="43">IF(C55,E55*(2^(D55-1)-1)+F55,E55*(2^D55-1)+F55)</f>
+        <v>32767</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -3358,54 +3480,54 @@
         <v>16</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="40"/>
-        <v>-327.68</v>
+        <f t="shared" si="42"/>
+        <v>-3276.8</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="41"/>
-        <v>327.67</v>
+        <f t="shared" si="43"/>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E57" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="40"/>
-        <v>-3276.8</v>
+        <f t="shared" ref="G57" si="44">IF(C57,E57*(-2^(D57-1))+F57,0)</f>
+        <v>-21474836.48</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="41"/>
-        <v>3276.7000000000003</v>
+        <f t="shared" ref="H57" si="45">IF(C57,E57*(2^(D57-1)-1)+F57,E57*(2^D57-1)+F57)</f>
+        <v>21474836.469999999</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3420,20 +3542,20 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-327.68</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3448,20 +3570,20 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" ref="G59" si="44">IF(C59,E59*(-2^(D59-1))+F59,0)</f>
+        <f t="shared" si="42"/>
         <v>-3276.8</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" ref="H59" si="45">IF(C59,E59*(2^(D59-1)-1)+F59,E59*(2^D59-1)+F59)</f>
+        <f t="shared" si="43"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3470,26 +3592,26 @@
         <v>16</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" ref="G60:G62" si="46">IF(C60,E60*(-2^(D60-1))+F60,0)</f>
-        <v>-32768</v>
+        <f t="shared" si="42"/>
+        <v>-327.68</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" ref="H60:H62" si="47">IF(C60,E60*(2^(D60-1)-1)+F60,E60*(2^D60-1)+F60)</f>
-        <v>32767</v>
+        <f t="shared" si="43"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3498,26 +3620,26 @@
         <v>16</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="46"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G61" si="46">IF(C61,E61*(-2^(D61-1))+F61,0)</f>
+        <v>-3276.8</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="47"/>
-        <v>327.67</v>
+        <f t="shared" ref="H61" si="47">IF(C61,E61*(2^(D61-1)-1)+F61,E61*(2^D61-1)+F61)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3526,26 +3648,26 @@
         <v>16</v>
       </c>
       <c r="E62" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="46"/>
-        <v>-3276.8</v>
+        <f t="shared" ref="G62:G64" si="48">IF(C62,E62*(-2^(D62-1))+F62,0)</f>
+        <v>-32768</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="47"/>
-        <v>3276.7000000000003</v>
+        <f t="shared" ref="H62:H64" si="49">IF(C62,E62*(2^(D62-1)-1)+F62,E62*(2^D62-1)+F62)</f>
+        <v>32767</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3554,26 +3676,26 @@
         <v>16</v>
       </c>
       <c r="E63" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" ref="G63" si="48">IF(C63,E63*(-2^(D63-1))+F63,0)</f>
-        <v>-3276.8</v>
+        <f t="shared" si="48"/>
+        <v>-327.68</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" ref="H63" si="49">IF(C63,E63*(2^(D63-1)-1)+F63,E63*(2^D63-1)+F63)</f>
-        <v>3276.7000000000003</v>
+        <f t="shared" si="49"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3588,20 +3710,20 @@
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" ref="G64:G68" si="50">IF(C64,E64*(-2^(D64-1))+F64,0)</f>
+        <f t="shared" si="48"/>
         <v>-3276.8</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" ref="H64:H68" si="51">IF(C64,E64*(2^(D64-1)-1)+F64,E64*(2^D64-1)+F64)</f>
+        <f t="shared" si="49"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3616,20 +3738,20 @@
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="G65" si="50">IF(C65,E65*(-2^(D65-1))+F65,0)</f>
         <v>-3276.8</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="H65" si="51">IF(C65,E65*(2^(D65-1)-1)+F65,E65*(2^D65-1)+F65)</f>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3638,26 +3760,26 @@
         <v>16</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="50"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G66" si="52">IF(C66,E66*(-2^(D66-1))+F66,0)</f>
+        <v>-32768</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="51"/>
-        <v>327.67</v>
+        <f t="shared" ref="H66" si="53">IF(C66,E66*(2^(D66-1)-1)+F66,E66*(2^D66-1)+F66)</f>
+        <v>32767</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -3666,26 +3788,26 @@
         <v>16</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="50"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G67:G71" si="54">IF(C67,E67*(-2^(D67-1))+F67,0)</f>
+        <v>-3276.8</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="51"/>
-        <v>327.67</v>
+        <f t="shared" ref="H67:H71" si="55">IF(C67,E67*(2^(D67-1)-1)+F67,E67*(2^D67-1)+F67)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -3694,26 +3816,26 @@
         <v>16</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="50"/>
-        <v>-327.68</v>
+        <f t="shared" si="54"/>
+        <v>-3276.8</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="51"/>
-        <v>327.67</v>
+        <f t="shared" si="55"/>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -3728,20 +3850,20 @@
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" ref="G69:G71" si="52">IF(C69,E69*(-2^(D69-1))+F69,0)</f>
+        <f t="shared" si="54"/>
         <v>-327.68</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" ref="H69:H71" si="53">IF(C69,E69*(2^(D69-1)-1)+F69,E69*(2^D69-1)+F69)</f>
+        <f t="shared" si="55"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -3756,20 +3878,20 @@
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-327.68</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -3784,20 +3906,20 @@
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-327.68</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -3812,20 +3934,20 @@
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" ref="G72:G75" si="54">IF(C72,E72*(-2^(D72-1))+F72,0)</f>
+        <f t="shared" ref="G72:G74" si="56">IF(C72,E72*(-2^(D72-1))+F72,0)</f>
         <v>-327.68</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" ref="H72:H75" si="55">IF(C72,E72*(2^(D72-1)-1)+F72,E72*(2^D72-1)+F72)</f>
+        <f t="shared" ref="H72:H74" si="57">IF(C72,E72*(2^(D72-1)-1)+F72,E72*(2^D72-1)+F72)</f>
         <v>327.67</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -3840,20 +3962,20 @@
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-327.68</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -3868,20 +3990,20 @@
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-327.68</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -3896,20 +4018,20 @@
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="G75:G78" si="58">IF(C75,E75*(-2^(D75-1))+F75,0)</f>
         <v>-327.68</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="H75:H78" si="59">IF(C75,E75*(2^(D75-1)-1)+F75,E75*(2^D75-1)+F75)</f>
         <v>327.67</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -3924,20 +4046,20 @@
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" ref="G76:G79" si="56">IF(C76,E76*(-2^(D76-1))+F76,0)</f>
+        <f t="shared" si="58"/>
         <v>-327.68</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" ref="H76:H79" si="57">IF(C76,E76*(2^(D76-1)-1)+F76,E76*(2^D76-1)+F76)</f>
+        <f t="shared" si="59"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -3952,20 +4074,20 @@
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-327.68</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -3980,20 +4102,20 @@
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-327.68</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -4002,26 +4124,26 @@
         <v>16</v>
       </c>
       <c r="E79" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="56"/>
-        <v>-3276.8</v>
+        <f t="shared" ref="G79:G82" si="60">IF(C79,E79*(-2^(D79-1))+F79,0)</f>
+        <v>-327.68</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="57"/>
-        <v>3276.7000000000003</v>
+        <f t="shared" ref="H79:H82" si="61">IF(C79,E79*(2^(D79-1)-1)+F79,E79*(2^D79-1)+F79)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -4030,26 +4152,26 @@
         <v>16</v>
       </c>
       <c r="E80" s="1">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" ref="G80:G81" si="58">IF(C80,E80*(-2^(D80-1))+F80,0)</f>
-        <v>-16384</v>
+        <f t="shared" si="60"/>
+        <v>-327.68</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" ref="H80:H81" si="59">IF(C80,E80*(2^(D80-1)-1)+F80,E80*(2^D80-1)+F80)</f>
-        <v>16383.5</v>
+        <f t="shared" si="61"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -4064,20 +4186,20 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>-327.68</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -4086,26 +4208,26 @@
         <v>16</v>
       </c>
       <c r="E82" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" ref="G82:G83" si="60">IF(C82,E82*(-2^(D82-1))+F82,0)</f>
-        <v>-327.68</v>
+        <f t="shared" si="60"/>
+        <v>-3276.8</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" ref="H82:H83" si="61">IF(C82,E82*(2^(D82-1)-1)+F82,E82*(2^D82-1)+F82)</f>
-        <v>327.67</v>
+        <f t="shared" si="61"/>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -4114,26 +4236,26 @@
         <v>16</v>
       </c>
       <c r="E83" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="60"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G83" si="62">IF(C83,E83*(-2^(D83-1))+F83,0)</f>
+        <v>-3276.8</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="61"/>
-        <v>327.67</v>
+        <f t="shared" ref="H83" si="63">IF(C83,E83*(2^(D83-1)-1)+F83,E83*(2^D83-1)+F83)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -4142,26 +4264,26 @@
         <v>16</v>
       </c>
       <c r="E84" s="1">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" ref="G84" si="62">IF(C84,E84*(-2^(D84-1))+F84,0)</f>
-        <v>-327.68</v>
+        <f t="shared" ref="G84:G86" si="64">IF(C84,E84*(-2^(D84-1))+F84,0)</f>
+        <v>-16384</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" ref="H84" si="63">IF(C84,E84*(2^(D84-1)-1)+F84,E84*(2^D84-1)+F84)</f>
-        <v>327.67</v>
+        <f t="shared" ref="H84:H86" si="65">IF(C84,E84*(2^(D84-1)-1)+F84,E84*(2^D84-1)+F84)</f>
+        <v>16383.5</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -4170,26 +4292,26 @@
         <v>16</v>
       </c>
       <c r="E85" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" ref="G85:G86" si="64">IF(C85,E85*(-2^(D85-1))+F85,0)</f>
-        <v>-3276.8</v>
+        <f t="shared" ref="G85" si="66">IF(C85,E85*(-2^(D85-1))+F85,0)</f>
+        <v>-16384</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" ref="H85:H86" si="65">IF(C85,E85*(2^(D85-1)-1)+F85,E85*(2^D85-1)+F85)</f>
-        <v>3276.7000000000003</v>
+        <f t="shared" ref="H85" si="67">IF(C85,E85*(2^(D85-1)-1)+F85,E85*(2^D85-1)+F85)</f>
+        <v>16383.5</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -4214,10 +4336,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -4226,26 +4348,26 @@
         <v>16</v>
       </c>
       <c r="E87" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" ref="G87:G89" si="66">IF(C87,E87*(-2^(D87-1))+F87,0)</f>
-        <v>-1638.4</v>
+        <f t="shared" ref="G87:G88" si="68">IF(C87,E87*(-2^(D87-1))+F87,0)</f>
+        <v>-327.68</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87:H89" si="67">IF(C87,E87*(2^(D87-1)-1)+F87,E87*(2^D87-1)+F87)</f>
-        <v>1638.3500000000001</v>
+        <f t="shared" ref="H87:H88" si="69">IF(C87,E87*(2^(D87-1)-1)+F87,E87*(2^D87-1)+F87)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -4260,20 +4382,20 @@
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-327.68</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -4282,26 +4404,26 @@
         <v>16</v>
       </c>
       <c r="E89" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="66"/>
-        <v>-655.36</v>
+        <f t="shared" ref="G89" si="70">IF(C89,E89*(-2^(D89-1))+F89,0)</f>
+        <v>-327.68</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="67"/>
-        <v>655.34</v>
+        <f t="shared" ref="H89" si="71">IF(C89,E89*(2^(D89-1)-1)+F89,E89*(2^D89-1)+F89)</f>
+        <v>327.67</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -4316,20 +4438,20 @@
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" ref="G90:G93" si="68">IF(C90,E90*(-2^(D90-1))+F90,0)</f>
+        <f t="shared" ref="G90:G92" si="72">IF(C90,E90*(-2^(D90-1))+F90,0)</f>
         <v>-3276.8</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" ref="H90:H93" si="69">IF(C90,E90*(2^(D90-1)-1)+F90,E90*(2^D90-1)+F90)</f>
+        <f t="shared" ref="H90:H92" si="73">IF(C90,E90*(2^(D90-1)-1)+F90,E90*(2^D90-1)+F90)</f>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -4344,20 +4466,20 @@
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="G91" si="74">IF(C91,E91*(-2^(D91-1))+F91,0)</f>
         <v>-3276.8</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="H91" si="75">IF(C91,E91*(2^(D91-1)-1)+F91,E91*(2^D91-1)+F91)</f>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -4372,20 +4494,20 @@
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>-327.68</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -4394,26 +4516,26 @@
         <v>16</v>
       </c>
       <c r="E93" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="68"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G93:G96" si="76">IF(C93,E93*(-2^(D93-1))+F93,0)</f>
+        <v>-1638.4</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="69"/>
-        <v>327.67</v>
+        <f t="shared" ref="H93:H96" si="77">IF(C93,E93*(2^(D93-1)-1)+F93,E93*(2^D93-1)+F93)</f>
+        <v>1638.3500000000001</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -4428,20 +4550,20 @@
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" ref="G94:G95" si="70">IF(C94,E94*(-2^(D94-1))+F94,0)</f>
+        <f t="shared" si="76"/>
         <v>-327.68</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" ref="H94:H95" si="71">IF(C94,E94*(2^(D94-1)-1)+F94,E94*(2^D94-1)+F94)</f>
+        <f t="shared" si="77"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -4450,26 +4572,26 @@
         <v>16</v>
       </c>
       <c r="E95" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="70"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G95" si="78">IF(C95,E95*(-2^(D95-1))+F95,0)</f>
+        <v>-3276.8</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="71"/>
-        <v>327.67</v>
+        <f t="shared" ref="H95" si="79">IF(C95,E95*(2^(D95-1)-1)+F95,E95*(2^D95-1)+F95)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -4478,26 +4600,26 @@
         <v>16</v>
       </c>
       <c r="E96" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" ref="G96:G97" si="72">IF(C96,E96*(-2^(D96-1))+F96,0)</f>
-        <v>-327.68</v>
+        <f t="shared" si="76"/>
+        <v>-3276.8</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" ref="H96:H97" si="73">IF(C96,E96*(2^(D96-1)-1)+F96,E96*(2^D96-1)+F96)</f>
-        <v>327.67</v>
+        <f t="shared" si="77"/>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -4506,26 +4628,26 @@
         <v>16</v>
       </c>
       <c r="E97" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="72"/>
-        <v>-327.68</v>
+        <f t="shared" ref="G97:G100" si="80">IF(C97,E97*(-2^(D97-1))+F97,0)</f>
+        <v>-3276.8</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="73"/>
-        <v>327.67</v>
+        <f t="shared" ref="H97:H100" si="81">IF(C97,E97*(2^(D97-1)-1)+F97,E97*(2^D97-1)+F97)</f>
+        <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -4540,48 +4662,48 @@
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" ref="G98" si="74">IF(C98,E98*(-2^(D98-1))+F98,0)</f>
+        <f t="shared" si="80"/>
         <v>-3276.8</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" ref="H98" si="75">IF(C98,E98*(2^(D98-1)-1)+F98,E98*(2^D98-1)+F98)</f>
+        <f t="shared" si="81"/>
         <v>3276.7000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
       </c>
       <c r="D99" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E99" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" ref="G99:G100" si="76">IF(C99,E99*(-2^(D99-1))+F99,0)</f>
-        <v>-214748364.80000001</v>
+        <f t="shared" si="80"/>
+        <v>-327.68</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" ref="H99:H100" si="77">IF(C99,E99*(2^(D99-1)-1)+F99,E99*(2^D99-1)+F99)</f>
-        <v>214748364.70000002</v>
+        <f t="shared" si="81"/>
+        <v>327.67</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -4596,20 +4718,20 @@
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>-327.68</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>327.67</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -4618,17 +4740,213 @@
         <v>16</v>
       </c>
       <c r="E101" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" ref="G101:G102" si="82">IF(C101,E101*(-2^(D101-1))+F101,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" ref="H101:H102" si="83">IF(C101,E101*(2^(D101-1)-1)+F101,E101*(2^D101-1)+F101)</f>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>16</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="82"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="83"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>16</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" ref="G103:G104" si="84">IF(C103,E103*(-2^(D103-1))+F103,0)</f>
+        <v>-327.68</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" ref="H103:H104" si="85">IF(C103,E103*(2^(D103-1)-1)+F103,E103*(2^D103-1)+F103)</f>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>16</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="84"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="85"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>16</v>
+      </c>
+      <c r="E105" s="1">
         <v>0.1</v>
       </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <f t="shared" ref="G101" si="78">IF(C101,E101*(-2^(D101-1))+F101,0)</f>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" ref="G105" si="86">IF(C105,E105*(-2^(D105-1))+F105,0)</f>
         <v>-3276.8</v>
       </c>
-      <c r="H101" s="1">
-        <f t="shared" ref="H101" si="79">IF(C101,E101*(2^(D101-1)-1)+F101,E101*(2^D101-1)+F101)</f>
+      <c r="H105" s="1">
+        <f t="shared" ref="H105" si="87">IF(C105,E105*(2^(D105-1)-1)+F105,E105*(2^D105-1)+F105)</f>
+        <v>3276.7000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>32</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" ref="G106:G107" si="88">IF(C106,E106*(-2^(D106-1))+F106,0)</f>
+        <v>-214748364.80000001</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" ref="H106:H107" si="89">IF(C106,E106*(2^(D106-1)-1)+F106,E106*(2^D106-1)+F106)</f>
+        <v>214748364.70000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>16</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="88"/>
+        <v>-327.68</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="89"/>
+        <v>327.67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>16</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <f t="shared" ref="G108" si="90">IF(C108,E108*(-2^(D108-1))+F108,0)</f>
+        <v>-3276.8</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" ref="H108" si="91">IF(C108,E108*(2^(D108-1)-1)+F108,E108*(2^D108-1)+F108)</f>
         <v>3276.7000000000003</v>
       </c>
     </row>
@@ -4650,10 +4968,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4662,7 +4980,8 @@
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="7" max="14" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4712,49 +5031,86 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>252</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4768,7 +5124,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4781,85 +5137,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
+      <c r="C2" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/cm/DatatypeDef.xlsx
+++ b/cm/DatatypeDef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2968C2-1124-4156-8EE4-FA137B9ED033}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DD70BB-E5F7-4568-88D9-131CC683AF8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,7 +143,8 @@
           <t xml:space="preserve">
 real world value = (slope * integer) + bias
 在bias等于0的情况下，slope就是精度（分辨率）；
-精度和范围决定用哪个数据类型</t>
+精度和范围决定用哪个数据类型；
+尽量将Bias设为0，可以提高单片机计算速度</t>
         </r>
       </text>
     </comment>
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="316">
   <si>
     <t>Name</t>
   </si>
@@ -1360,6 +1361,122 @@
   </si>
   <si>
     <t>温度，千摄氏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning：请不要在灰色背景区域输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signed,16b，Acurrancy about 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnSigned,16b，Acurrancy about 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signed,16b，Acurrancy about 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnSigned,16b，Acurrancy about 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signed,32b，Acurrancy about 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnSigned,32b，Acurrancy about 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signed,32b，Acurrancy about 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnSigned,32b，Acurrancy about 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signed,32b，Acurrancy about 0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnSigned,32b，Acurrancy about 0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signed,32b，Acurrancy about 0.0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnSigned,32b，Acurrancy about 0.0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signed,16b，Acurrancy about 0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnSigned,16b，Acurrancy about 0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s16Sp01R2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s16Sp1R4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16Sp1R8k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16Sp01R5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s16Sp001R30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16Sp001R60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s32Sp001R2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u32Sp001R2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s32Sp01R16M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u32Sp01R30M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s32Sp0001R260k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u32Sp0001R520k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s32Sp1R260M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u32Sp1R530M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1447,7 +1564,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1469,6 +1586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1551,11 +1674,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1858,7 +1987,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1981,10 +2110,10 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="17"/>
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1998,17 +2127,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
@@ -2019,51 +2148,54 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2087,15 +2219,15 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(C3,F3*(-2^(D3-1))+G3,0)</f>
+        <f t="shared" ref="H3:H34" si="0">IF(C3,F3*(-2^(D3-1))+G3,0)</f>
         <v>-256</v>
       </c>
       <c r="I3" s="1">
-        <f>IF(C3,F3*(2^(D3-1)-1)+G3,F3*(2^D3-1)+G3)</f>
+        <f t="shared" ref="I3:I34" si="1">IF(C3,F3*(2^(D3-1)-1)+G3,F3*(2^D3-1)+G3)</f>
         <v>255.9921875</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -2112,22 +2244,22 @@
         <v>-7</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F68" si="0">2^E4</f>
+        <f t="shared" ref="F4:F68" si="2">2^E4</f>
         <v>7.8125E-3</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(C4,F4*(-2^(D4-1))+G4,0)</f>
+        <f t="shared" si="0"/>
         <v>-256</v>
       </c>
       <c r="I4" s="1">
-        <f>IF(C4,F4*(2^(D4-1)-1)+G4,F4*(2^D4-1)+G4)</f>
+        <f t="shared" si="1"/>
         <v>255.9921875</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -2144,22 +2276,22 @@
         <v>-6</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>IF(C5,F5*(-2^(D5-1))+G5,0)</f>
         <v>-512</v>
       </c>
       <c r="I5" s="1">
-        <f>IF(C5,F5*(2^(D5-1)-1)+G5,F5*(2^D5-1)+G5)</f>
+        <f t="shared" si="1"/>
         <v>511.984375</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
@@ -2176,22 +2308,22 @@
         <v>-13</v>
       </c>
       <c r="F6" s="12">
+        <f t="shared" si="2"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
         <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <f>IF(C6,F6*(-2^(D6-1))+G6,0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="12">
-        <f>IF(C6,F6*(2^(D6-1)-1)+G6,F6*(2^D6-1)+G6)</f>
+        <f t="shared" si="1"/>
         <v>7.9998779296875</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
@@ -2208,22 +2340,22 @@
         <v>-10</v>
       </c>
       <c r="F7" s="12">
+        <f t="shared" si="2"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <f>IF(C7,F7*(-2^(D7-1))+G7,0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="12">
-        <f>IF(C7,F7*(2^(D7-1)-1)+G7,F7*(2^D7-1)+G7)</f>
+        <f t="shared" si="1"/>
         <v>63.9990234375</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
         <v>33</v>
       </c>
@@ -2240,22 +2372,22 @@
         <v>-9</v>
       </c>
       <c r="F8" s="12">
+        <f t="shared" si="2"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <f>IF(C8,F8*(-2^(D8-1))+G8,0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="12">
-        <f>IF(C8,F8*(2^(D8-1)-1)+G8,F8*(2^D8-1)+G8)</f>
+        <f t="shared" si="1"/>
         <v>127.998046875</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
         <v>101</v>
       </c>
@@ -2272,22 +2404,22 @@
         <v>-13</v>
       </c>
       <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <f>IF(C9,F9*(-2^(D9-1))+G9,0)</f>
         <v>-4</v>
       </c>
       <c r="I9" s="12">
-        <f>IF(C9,F9*(2^(D9-1)-1)+G9,F9*(2^D9-1)+G9)</f>
+        <f t="shared" si="1"/>
         <v>3.9998779296875</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="12" t="s">
         <v>102</v>
       </c>
@@ -2304,22 +2436,22 @@
         <v>-10</v>
       </c>
       <c r="F10" s="12">
+        <f t="shared" si="2"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
         <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <f>IF(C10,F10*(-2^(D10-1))+G10,0)</f>
         <v>-32</v>
       </c>
       <c r="I10" s="12">
-        <f>IF(C10,F10*(2^(D10-1)-1)+G10,F10*(2^D10-1)+G10)</f>
+        <f t="shared" si="1"/>
         <v>31.9990234375</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
         <v>103</v>
       </c>
@@ -2336,22 +2468,22 @@
         <v>-8</v>
       </c>
       <c r="F11" s="12">
+        <f t="shared" si="2"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <f>IF(C11,F11*(-2^(D11-1))+G11,0)</f>
         <v>-128</v>
       </c>
       <c r="I11" s="12">
-        <f>IF(C11,F11*(2^(D11-1)-1)+G11,F11*(2^D11-1)+G11)</f>
+        <f t="shared" si="1"/>
         <v>127.99609375</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
@@ -2368,22 +2500,22 @@
         <v>-8</v>
       </c>
       <c r="F12" s="12">
+        <f t="shared" si="2"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <f>IF(C12,F12*(-2^(D12-1))+G12,0)</f>
         <v>-128</v>
       </c>
       <c r="I12" s="12">
-        <f>IF(C12,F12*(2^(D12-1)-1)+G12,F12*(2^D12-1)+G12)</f>
+        <f t="shared" si="1"/>
         <v>127.99609375</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="12" t="s">
         <v>223</v>
       </c>
@@ -2400,22 +2532,22 @@
         <v>-6</v>
       </c>
       <c r="F13" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <f>IF(C13,F13*(-2^(D13-1))+G13,0)</f>
         <v>-512</v>
       </c>
       <c r="I13" s="12">
-        <f>IF(C13,F13*(2^(D13-1)-1)+G13,F13*(2^D13-1)+G13)</f>
+        <f t="shared" si="1"/>
         <v>511.984375</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="12" t="s">
         <v>39</v>
       </c>
@@ -2432,22 +2564,22 @@
         <v>-8</v>
       </c>
       <c r="F14" s="12">
+        <f t="shared" si="2"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
-        <f>IF(C14,F14*(-2^(D14-1))+G14,0)</f>
         <v>-128</v>
       </c>
       <c r="I14" s="12">
-        <f>IF(C14,F14*(2^(D14-1)-1)+G14,F14*(2^D14-1)+G14)</f>
+        <f t="shared" si="1"/>
         <v>127.99609375</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="12" t="s">
         <v>226</v>
       </c>
@@ -2464,22 +2596,22 @@
         <v>-9</v>
       </c>
       <c r="F15" s="12">
+        <f t="shared" si="2"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <f>IF(C15,F15*(-2^(D15-1))+G15,0)</f>
         <v>0</v>
       </c>
       <c r="I15" s="12">
-        <f>IF(C15,F15*(2^(D15-1)-1)+G15,F15*(2^D15-1)+G15)</f>
+        <f t="shared" si="1"/>
         <v>127.998046875</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="12" t="s">
         <v>104</v>
       </c>
@@ -2496,18 +2628,18 @@
         <v>-8</v>
       </c>
       <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <f>IF(C16,F16*(-2^(D16-1))+G16,0)</f>
         <v>-128</v>
       </c>
       <c r="I16" s="12">
-        <f>IF(C16,F16*(2^(D16-1)-1)+G16,F16*(2^D16-1)+G16)</f>
+        <f t="shared" si="1"/>
         <v>127.99609375</v>
       </c>
     </row>
@@ -2528,18 +2660,18 @@
         <v>-9</v>
       </c>
       <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <f>IF(C17,F17*(-2^(D17-1))+G17,0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="12">
-        <f>IF(C17,F17*(2^(D17-1)-1)+G17,F17*(2^D17-1)+G17)</f>
+        <f t="shared" si="1"/>
         <v>127.998046875</v>
       </c>
     </row>
@@ -2560,18 +2692,18 @@
         <v>-8</v>
       </c>
       <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <f>IF(C18,F18*(-2^(D18-1))+G18,0)</f>
         <v>-128</v>
       </c>
       <c r="I18" s="12">
-        <f>IF(C18,F18*(2^(D18-1)-1)+G18,F18*(2^D18-1)+G18)</f>
+        <f t="shared" si="1"/>
         <v>127.99609375</v>
       </c>
     </row>
@@ -2592,18 +2724,18 @@
         <v>-6</v>
       </c>
       <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <f>IF(C19,F19*(-2^(D19-1))+G19,0)</f>
         <v>-512</v>
       </c>
       <c r="I19" s="1">
-        <f>IF(C19,F19*(2^(D19-1)-1)+G19,F19*(2^D19-1)+G19)</f>
+        <f t="shared" si="1"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -2624,18 +2756,18 @@
         <v>-4</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <f>IF(C20,F20*(-2^(D20-1))+G20,0)</f>
         <v>-2048</v>
       </c>
       <c r="I20" s="1">
-        <f>IF(C20,F20*(2^(D20-1)-1)+G20,F20*(2^D20-1)+G20)</f>
+        <f t="shared" si="1"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -2656,18 +2788,18 @@
         <v>-6</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <f>IF(C21,F21*(-2^(D21-1))+G21,0)</f>
         <v>-512</v>
       </c>
       <c r="I21" s="1">
-        <f>IF(C21,F21*(2^(D21-1)-1)+G21,F21*(2^D21-1)+G21)</f>
+        <f t="shared" si="1"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -2688,18 +2820,18 @@
         <v>-4</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <f>IF(C22,F22*(-2^(D22-1))+G22,0)</f>
         <v>-2048</v>
       </c>
       <c r="I22" s="1">
-        <f>IF(C22,F22*(2^(D22-1)-1)+G22,F22*(2^D22-1)+G22)</f>
+        <f t="shared" si="1"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -2720,18 +2852,18 @@
         <v>-6</v>
       </c>
       <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <f>IF(C23,F23*(-2^(D23-1))+G23,0)</f>
         <v>-512</v>
       </c>
       <c r="I23" s="1">
-        <f>IF(C23,F23*(2^(D23-1)-1)+G23,F23*(2^D23-1)+G23)</f>
+        <f t="shared" si="1"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -2752,18 +2884,18 @@
         <v>-4</v>
       </c>
       <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <f>IF(C24,F24*(-2^(D24-1))+G24,0)</f>
         <v>-2048</v>
       </c>
       <c r="I24" s="1">
-        <f>IF(C24,F24*(2^(D24-1)-1)+G24,F24*(2^D24-1)+G24)</f>
+        <f t="shared" si="1"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -2784,18 +2916,18 @@
         <v>-4</v>
       </c>
       <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <f>IF(C25,F25*(-2^(D25-1))+G25,0)</f>
         <v>-134217728</v>
       </c>
       <c r="I25" s="1">
-        <f>IF(C25,F25*(2^(D25-1)-1)+G25,F25*(2^D25-1)+G25)</f>
+        <f t="shared" si="1"/>
         <v>134217727.9375</v>
       </c>
     </row>
@@ -2816,18 +2948,18 @@
         <v>-6</v>
       </c>
       <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <f>IF(C26,F26*(-2^(D26-1))+G26,0)</f>
         <v>-512</v>
       </c>
       <c r="I26" s="1">
-        <f>IF(C26,F26*(2^(D26-1)-1)+G26,F26*(2^D26-1)+G26)</f>
+        <f t="shared" si="1"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -2848,18 +2980,18 @@
         <v>-4</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <f>IF(C27,F27*(-2^(D27-1))+G27,0)</f>
         <v>-2048</v>
       </c>
       <c r="I27" s="1">
-        <f>IF(C27,F27*(2^(D27-1)-1)+G27,F27*(2^D27-1)+G27)</f>
+        <f t="shared" si="1"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -2880,18 +3012,18 @@
         <v>-4</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <f>IF(C28,F28*(-2^(D28-1))+G28,0)</f>
         <v>-134217728</v>
       </c>
       <c r="I28" s="1">
-        <f>IF(C28,F28*(2^(D28-1)-1)+G28,F28*(2^D28-1)+G28)</f>
+        <f t="shared" si="1"/>
         <v>134217727.9375</v>
       </c>
     </row>
@@ -2912,18 +3044,18 @@
         <v>-6</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <f>IF(C29,F29*(-2^(D29-1))+G29,0)</f>
         <v>-512</v>
       </c>
       <c r="I29" s="1">
-        <f>IF(C29,F29*(2^(D29-1)-1)+G29,F29*(2^D29-1)+G29)</f>
+        <f t="shared" si="1"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -2944,18 +3076,18 @@
         <v>-4</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <f>IF(C30,F30*(-2^(D30-1))+G30,0)</f>
         <v>-2048</v>
       </c>
       <c r="I30" s="1">
-        <f>IF(C30,F30*(2^(D30-1)-1)+G30,F30*(2^D30-1)+G30)</f>
+        <f t="shared" si="1"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -2976,18 +3108,18 @@
         <v>-4</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <f>IF(C31,F31*(-2^(D31-1))+G31,0)</f>
         <v>-134217728</v>
       </c>
       <c r="I31" s="1">
-        <f>IF(C31,F31*(2^(D31-1)-1)+G31,F31*(2^D31-1)+G31)</f>
+        <f t="shared" si="1"/>
         <v>134217727.9375</v>
       </c>
     </row>
@@ -3008,18 +3140,18 @@
         <v>-6</v>
       </c>
       <c r="F32" s="14">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G32" s="14">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14">
-        <f>IF(C32,F32*(-2^(D32-1))+G32,0)</f>
         <v>0</v>
       </c>
       <c r="I32" s="14">
-        <f>IF(C32,F32*(2^(D32-1)-1)+G32,F32*(2^D32-1)+G32)</f>
+        <f t="shared" si="1"/>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3040,18 +3172,18 @@
         <v>-6</v>
       </c>
       <c r="F33" s="14">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G33" s="14">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14">
-        <f>IF(C33,F33*(-2^(D33-1))+G33,0)</f>
         <v>0</v>
       </c>
       <c r="I33" s="14">
-        <f>IF(C33,F33*(2^(D33-1)-1)+G33,F33*(2^D33-1)+G33)</f>
+        <f t="shared" si="1"/>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3072,18 +3204,18 @@
         <v>-6</v>
       </c>
       <c r="F34" s="14">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G34" s="14">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
-        <f>IF(C34,F34*(-2^(D34-1))+G34,0)</f>
         <v>0</v>
       </c>
       <c r="I34" s="14">
-        <f>IF(C34,F34*(2^(D34-1)-1)+G34,F34*(2^D34-1)+G34)</f>
+        <f t="shared" si="1"/>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3104,18 +3236,18 @@
         <v>-6</v>
       </c>
       <c r="F35" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G35" s="14">
         <v>0</v>
       </c>
       <c r="H35" s="14">
-        <f>IF(C35,F35*(-2^(D35-1))+G35,0)</f>
+        <f t="shared" ref="H35:H66" si="3">IF(C35,F35*(-2^(D35-1))+G35,0)</f>
         <v>0</v>
       </c>
       <c r="I35" s="14">
-        <f>IF(C35,F35*(2^(D35-1)-1)+G35,F35*(2^D35-1)+G35)</f>
+        <f t="shared" ref="I35:I66" si="4">IF(C35,F35*(2^(D35-1)-1)+G35,F35*(2^D35-1)+G35)</f>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3136,18 +3268,18 @@
         <v>-6</v>
       </c>
       <c r="F36" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G36" s="14">
         <v>0</v>
       </c>
       <c r="H36" s="14">
-        <f>IF(C36,F36*(-2^(D36-1))+G36,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="14">
-        <f>IF(C36,F36*(2^(D36-1)-1)+G36,F36*(2^D36-1)+G36)</f>
+        <f t="shared" si="4"/>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3168,18 +3300,18 @@
         <v>-6</v>
       </c>
       <c r="F37" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G37" s="14">
         <v>0</v>
       </c>
       <c r="H37" s="14">
-        <f>IF(C37,F37*(-2^(D37-1))+G37,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="14">
-        <f>IF(C37,F37*(2^(D37-1)-1)+G37,F37*(2^D37-1)+G37)</f>
+        <f t="shared" si="4"/>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3200,18 +3332,18 @@
         <v>-6</v>
       </c>
       <c r="F38" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G38" s="14">
         <v>0</v>
       </c>
       <c r="H38" s="14">
-        <f>IF(C38,F38*(-2^(D38-1))+G38,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="14">
-        <f>IF(C38,F38*(2^(D38-1)-1)+G38,F38*(2^D38-1)+G38)</f>
+        <f t="shared" si="4"/>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3232,18 +3364,18 @@
         <v>-6</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f>IF(C39,F39*(-2^(D39-1))+G39,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <f>IF(C39,F39*(2^(D39-1)-1)+G39,F39*(2^D39-1)+G39)</f>
+        <f t="shared" si="4"/>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3264,18 +3396,18 @@
         <v>-4</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f>IF(C40,F40*(-2^(D40-1))+G40,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f>IF(C40,F40*(2^(D40-1)-1)+G40,F40*(2^D40-1)+G40)</f>
+        <f t="shared" si="4"/>
         <v>4095.9375</v>
       </c>
     </row>
@@ -3296,18 +3428,18 @@
         <v>-6</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f>IF(C41,F41*(-2^(D41-1))+G41,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f>IF(C41,F41*(2^(D41-1)-1)+G41,F41*(2^D41-1)+G41)</f>
+        <f t="shared" si="4"/>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3328,18 +3460,18 @@
         <v>-4</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f>IF(C42,F42*(-2^(D42-1))+G42,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <f>IF(C42,F42*(2^(D42-1)-1)+G42,F42*(2^D42-1)+G42)</f>
+        <f t="shared" si="4"/>
         <v>4095.9375</v>
       </c>
     </row>
@@ -3360,18 +3492,18 @@
         <v>-6</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f>IF(C43,F43*(-2^(D43-1))+G43,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f>IF(C43,F43*(2^(D43-1)-1)+G43,F43*(2^D43-1)+G43)</f>
+        <f t="shared" si="4"/>
         <v>1023.984375</v>
       </c>
     </row>
@@ -3392,18 +3524,18 @@
         <v>-4</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f>IF(C44,F44*(-2^(D44-1))+G44,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>IF(C44,F44*(2^(D44-1)-1)+G44,F44*(2^D44-1)+G44)</f>
+        <f t="shared" si="4"/>
         <v>4095.9375</v>
       </c>
     </row>
@@ -3424,18 +3556,18 @@
         <v>-2</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="G45" s="13">
         <v>0</v>
       </c>
       <c r="H45" s="13">
-        <f>IF(C45,F45*(-2^(D45-1))+G45,0)</f>
+        <f t="shared" si="3"/>
         <v>-8192</v>
       </c>
       <c r="I45" s="13">
-        <f>IF(C45,F45*(2^(D45-1)-1)+G45,F45*(2^D45-1)+G45)</f>
+        <f t="shared" si="4"/>
         <v>8191.75</v>
       </c>
     </row>
@@ -3456,18 +3588,18 @@
         <v>0</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
       </c>
       <c r="H46" s="13">
-        <f>IF(C46,F46*(-2^(D46-1))+G46,0)</f>
+        <f t="shared" si="3"/>
         <v>-32768</v>
       </c>
       <c r="I46" s="13">
-        <f>IF(C46,F46*(2^(D46-1)-1)+G46,F46*(2^D46-1)+G46)</f>
+        <f t="shared" si="4"/>
         <v>32767</v>
       </c>
     </row>
@@ -3488,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G47" s="13">
         <v>0</v>
       </c>
       <c r="H47" s="13">
-        <f>IF(C47,F47*(-2^(D47-1))+G47,0)</f>
+        <f t="shared" si="3"/>
         <v>-32768</v>
       </c>
       <c r="I47" s="13">
-        <f>IF(C47,F47*(2^(D47-1)-1)+G47,F47*(2^D47-1)+G47)</f>
+        <f t="shared" si="4"/>
         <v>32767</v>
       </c>
     </row>
@@ -3520,18 +3652,18 @@
         <v>-6</v>
       </c>
       <c r="F48" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
       </c>
       <c r="H48" s="13">
-        <f>IF(C48,F48*(-2^(D48-1))+G48,0)</f>
+        <f t="shared" si="3"/>
         <v>-512</v>
       </c>
       <c r="I48" s="13">
-        <f>IF(C48,F48*(2^(D48-1)-1)+G48,F48*(2^D48-1)+G48)</f>
+        <f t="shared" si="4"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -3552,18 +3684,18 @@
         <v>-4</v>
       </c>
       <c r="F49" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G49" s="13">
         <v>0</v>
       </c>
       <c r="H49" s="13">
-        <f>IF(C49,F49*(-2^(D49-1))+G49,0)</f>
+        <f t="shared" si="3"/>
         <v>-2048</v>
       </c>
       <c r="I49" s="13">
-        <f>IF(C49,F49*(2^(D49-1)-1)+G49,F49*(2^D49-1)+G49)</f>
+        <f t="shared" si="4"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -3584,18 +3716,18 @@
         <v>-2</v>
       </c>
       <c r="F50" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
       </c>
       <c r="H50" s="13">
-        <f>IF(C50,F50*(-2^(D50-1))+G50,0)</f>
+        <f t="shared" si="3"/>
         <v>-8192</v>
       </c>
       <c r="I50" s="13">
-        <f>IF(C50,F50*(2^(D50-1)-1)+G50,F50*(2^D50-1)+G50)</f>
+        <f t="shared" si="4"/>
         <v>8191.75</v>
       </c>
     </row>
@@ -3616,18 +3748,18 @@
         <v>0</v>
       </c>
       <c r="F51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G51" s="13">
         <v>0</v>
       </c>
       <c r="H51" s="13">
-        <f>IF(C51,F51*(-2^(D51-1))+G51,0)</f>
+        <f t="shared" si="3"/>
         <v>-32768</v>
       </c>
       <c r="I51" s="13">
-        <f>IF(C51,F51*(2^(D51-1)-1)+G51,F51*(2^D51-1)+G51)</f>
+        <f t="shared" si="4"/>
         <v>32767</v>
       </c>
     </row>
@@ -3648,18 +3780,18 @@
         <v>-6</v>
       </c>
       <c r="F52" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G52" s="13">
         <v>0</v>
       </c>
       <c r="H52" s="13">
-        <f>IF(C52,F52*(-2^(D52-1))+G52,0)</f>
+        <f t="shared" si="3"/>
         <v>-512</v>
       </c>
       <c r="I52" s="13">
-        <f>IF(C52,F52*(2^(D52-1)-1)+G52,F52*(2^D52-1)+G52)</f>
+        <f t="shared" si="4"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -3680,18 +3812,18 @@
         <v>-4</v>
       </c>
       <c r="F53" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
       </c>
       <c r="H53" s="13">
-        <f>IF(C53,F53*(-2^(D53-1))+G53,0)</f>
+        <f t="shared" si="3"/>
         <v>-2048</v>
       </c>
       <c r="I53" s="13">
-        <f>IF(C53,F53*(2^(D53-1)-1)+G53,F53*(2^D53-1)+G53)</f>
+        <f t="shared" si="4"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -3712,18 +3844,18 @@
         <v>-4</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f>IF(C54,F54*(-2^(D54-1))+G54,0)</f>
+        <f t="shared" si="3"/>
         <v>-2048</v>
       </c>
       <c r="I54" s="1">
-        <f>IF(C54,F54*(2^(D54-1)-1)+G54,F54*(2^D54-1)+G54)</f>
+        <f t="shared" si="4"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -3744,18 +3876,18 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f>IF(C55,F55*(-2^(D55-1))+G55,0)</f>
+        <f t="shared" si="3"/>
         <v>-32768</v>
       </c>
       <c r="I55" s="1">
-        <f>IF(C55,F55*(2^(D55-1)-1)+G55,F55*(2^D55-1)+G55)</f>
+        <f t="shared" si="4"/>
         <v>32767</v>
       </c>
     </row>
@@ -3776,18 +3908,18 @@
         <v>-4</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f>IF(C56,F56*(-2^(D56-1))+G56,0)</f>
+        <f t="shared" si="3"/>
         <v>-2048</v>
       </c>
       <c r="I56" s="1">
-        <f>IF(C56,F56*(2^(D56-1)-1)+G56,F56*(2^D56-1)+G56)</f>
+        <f t="shared" si="4"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -3808,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f>IF(C57,F57*(-2^(D57-1))+G57,0)</f>
+        <f t="shared" si="3"/>
         <v>-32768</v>
       </c>
       <c r="I57" s="1">
-        <f>IF(C57,F57*(2^(D57-1)-1)+G57,F57*(2^D57-1)+G57)</f>
+        <f t="shared" si="4"/>
         <v>32767</v>
       </c>
     </row>
@@ -3840,18 +3972,18 @@
         <v>-6</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f>IF(C58,F58*(-2^(D58-1))+G58,0)</f>
+        <f t="shared" si="3"/>
         <v>-33554432</v>
       </c>
       <c r="I58" s="1">
-        <f>IF(C58,F58*(2^(D58-1)-1)+G58,F58*(2^D58-1)+G58)</f>
+        <f t="shared" si="4"/>
         <v>33554431.984375</v>
       </c>
     </row>
@@ -3872,18 +4004,18 @@
         <v>-6</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f>IF(C59,F59*(-2^(D59-1))+G59,0)</f>
+        <f t="shared" si="3"/>
         <v>-512</v>
       </c>
       <c r="I59" s="1">
-        <f>IF(C59,F59*(2^(D59-1)-1)+G59,F59*(2^D59-1)+G59)</f>
+        <f t="shared" si="4"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -3904,18 +4036,18 @@
         <v>-4</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f>IF(C60,F60*(-2^(D60-1))+G60,0)</f>
+        <f t="shared" si="3"/>
         <v>-2048</v>
       </c>
       <c r="I60" s="1">
-        <f>IF(C60,F60*(2^(D60-1)-1)+G60,F60*(2^D60-1)+G60)</f>
+        <f t="shared" si="4"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -3936,18 +4068,18 @@
         <v>-6</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f>IF(C61,F61*(-2^(D61-1))+G61,0)</f>
+        <f t="shared" si="3"/>
         <v>-512</v>
       </c>
       <c r="I61" s="1">
-        <f>IF(C61,F61*(2^(D61-1)-1)+G61,F61*(2^D61-1)+G61)</f>
+        <f t="shared" si="4"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -3968,18 +4100,18 @@
         <v>-4</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f>IF(C62,F62*(-2^(D62-1))+G62,0)</f>
+        <f t="shared" si="3"/>
         <v>-2048</v>
       </c>
       <c r="I62" s="1">
-        <f>IF(C62,F62*(2^(D62-1)-1)+G62,F62*(2^D62-1)+G62)</f>
+        <f t="shared" si="4"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -4000,18 +4132,18 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f>IF(C63,F63*(-2^(D63-1))+G63,0)</f>
+        <f t="shared" si="3"/>
         <v>-32768</v>
       </c>
       <c r="I63" s="1">
-        <f>IF(C63,F63*(2^(D63-1)-1)+G63,F63*(2^D63-1)+G63)</f>
+        <f t="shared" si="4"/>
         <v>32767</v>
       </c>
     </row>
@@ -4032,18 +4164,18 @@
         <v>-6</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f>IF(C64,F64*(-2^(D64-1))+G64,0)</f>
+        <f t="shared" si="3"/>
         <v>-512</v>
       </c>
       <c r="I64" s="1">
-        <f>IF(C64,F64*(2^(D64-1)-1)+G64,F64*(2^D64-1)+G64)</f>
+        <f t="shared" si="4"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4064,18 +4196,18 @@
         <v>-4</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f>IF(C65,F65*(-2^(D65-1))+G65,0)</f>
+        <f t="shared" si="3"/>
         <v>-2048</v>
       </c>
       <c r="I65" s="1">
-        <f>IF(C65,F65*(2^(D65-1)-1)+G65,F65*(2^D65-1)+G65)</f>
+        <f t="shared" si="4"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -4096,18 +4228,18 @@
         <v>-4</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f>IF(C66,F66*(-2^(D66-1))+G66,0)</f>
+        <f t="shared" si="3"/>
         <v>-2048</v>
       </c>
       <c r="I66" s="1">
-        <f>IF(C66,F66*(2^(D66-1)-1)+G66,F66*(2^D66-1)+G66)</f>
+        <f t="shared" si="4"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -4128,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f>IF(C67,F67*(-2^(D67-1))+G67,0)</f>
+        <f t="shared" ref="H67:H98" si="5">IF(C67,F67*(-2^(D67-1))+G67,0)</f>
         <v>-32768</v>
       </c>
       <c r="I67" s="1">
-        <f>IF(C67,F67*(2^(D67-1)-1)+G67,F67*(2^D67-1)+G67)</f>
+        <f t="shared" ref="I67:I98" si="6">IF(C67,F67*(2^(D67-1)-1)+G67,F67*(2^D67-1)+G67)</f>
         <v>32767</v>
       </c>
     </row>
@@ -4160,18 +4292,18 @@
         <v>-4</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f>IF(C68,F68*(-2^(D68-1))+G68,0)</f>
+        <f t="shared" si="5"/>
         <v>-2048</v>
       </c>
       <c r="I68" s="1">
-        <f>IF(C68,F68*(2^(D68-1)-1)+G68,F68*(2^D68-1)+G68)</f>
+        <f t="shared" si="6"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -4192,18 +4324,18 @@
         <v>-4</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" ref="F69:F110" si="1">2^E69</f>
+        <f t="shared" ref="F69:F111" si="7">2^E69</f>
         <v>6.25E-2</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <f>IF(C69,F69*(-2^(D69-1))+G69,0)</f>
+        <f t="shared" si="5"/>
         <v>-2048</v>
       </c>
       <c r="I69" s="1">
-        <f>IF(C69,F69*(2^(D69-1)-1)+G69,F69*(2^D69-1)+G69)</f>
+        <f t="shared" si="6"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -4224,18 +4356,18 @@
         <v>-6</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <f>IF(C70,F70*(-2^(D70-1))+G70,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I70" s="1">
-        <f>IF(C70,F70*(2^(D70-1)-1)+G70,F70*(2^D70-1)+G70)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4256,18 +4388,18 @@
         <v>-6</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <f>IF(C71,F71*(-2^(D71-1))+G71,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I71" s="1">
-        <f>IF(C71,F71*(2^(D71-1)-1)+G71,F71*(2^D71-1)+G71)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4288,18 +4420,18 @@
         <v>-6</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <f>IF(C72,F72*(-2^(D72-1))+G72,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I72" s="1">
-        <f>IF(C72,F72*(2^(D72-1)-1)+G72,F72*(2^D72-1)+G72)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4320,18 +4452,18 @@
         <v>-6</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <f>IF(C73,F73*(-2^(D73-1))+G73,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I73" s="1">
-        <f>IF(C73,F73*(2^(D73-1)-1)+G73,F73*(2^D73-1)+G73)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4352,18 +4484,18 @@
         <v>-6</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <f>IF(C74,F74*(-2^(D74-1))+G74,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I74" s="1">
-        <f>IF(C74,F74*(2^(D74-1)-1)+G74,F74*(2^D74-1)+G74)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4384,18 +4516,18 @@
         <v>-6</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <f>IF(C75,F75*(-2^(D75-1))+G75,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I75" s="1">
-        <f>IF(C75,F75*(2^(D75-1)-1)+G75,F75*(2^D75-1)+G75)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4416,18 +4548,18 @@
         <v>-6</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <f>IF(C76,F76*(-2^(D76-1))+G76,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I76" s="1">
-        <f>IF(C76,F76*(2^(D76-1)-1)+G76,F76*(2^D76-1)+G76)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4448,18 +4580,18 @@
         <v>-6</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <f>IF(C77,F77*(-2^(D77-1))+G77,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I77" s="1">
-        <f>IF(C77,F77*(2^(D77-1)-1)+G77,F77*(2^D77-1)+G77)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4480,18 +4612,18 @@
         <v>-6</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G78" s="1">
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <f>IF(C78,F78*(-2^(D78-1))+G78,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I78" s="1">
-        <f>IF(C78,F78*(2^(D78-1)-1)+G78,F78*(2^D78-1)+G78)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4512,18 +4644,18 @@
         <v>-6</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <f>IF(C79,F79*(-2^(D79-1))+G79,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I79" s="1">
-        <f>IF(C79,F79*(2^(D79-1)-1)+G79,F79*(2^D79-1)+G79)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4544,18 +4676,18 @@
         <v>-6</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f>IF(C80,F80*(-2^(D80-1))+G80,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I80" s="1">
-        <f>IF(C80,F80*(2^(D80-1)-1)+G80,F80*(2^D80-1)+G80)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4576,18 +4708,18 @@
         <v>-6</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <f>IF(C81,F81*(-2^(D81-1))+G81,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I81" s="1">
-        <f>IF(C81,F81*(2^(D81-1)-1)+G81,F81*(2^D81-1)+G81)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4608,18 +4740,18 @@
         <v>-6</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <f>IF(C82,F82*(-2^(D82-1))+G82,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I82" s="1">
-        <f>IF(C82,F82*(2^(D82-1)-1)+G82,F82*(2^D82-1)+G82)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4640,18 +4772,18 @@
         <v>-4</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f>IF(C83,F83*(-2^(D83-1))+G83,0)</f>
+        <f t="shared" si="5"/>
         <v>-2048</v>
       </c>
       <c r="I83" s="1">
-        <f>IF(C83,F83*(2^(D83-1)-1)+G83,F83*(2^D83-1)+G83)</f>
+        <f t="shared" si="6"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -4672,18 +4804,18 @@
         <v>-4</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <f>IF(C84,F84*(-2^(D84-1))+G84,0)</f>
+        <f t="shared" si="5"/>
         <v>-2048</v>
       </c>
       <c r="I84" s="1">
-        <f>IF(C84,F84*(2^(D84-1)-1)+G84,F84*(2^D84-1)+G84)</f>
+        <f t="shared" si="6"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -4711,11 +4843,11 @@
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <f>IF(C85,F85*(-2^(D85-1))+G85,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I85" s="1">
-        <f>IF(C85,F85*(2^(D85-1)-1)+G85,F85*(2^D85-1)+G85)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4736,18 +4868,18 @@
         <v>-1</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f>IF(C86,F86*(-2^(D86-1))+G86,0)</f>
+        <f t="shared" si="5"/>
         <v>-16384</v>
       </c>
       <c r="I86" s="1">
-        <f>IF(C86,F86*(2^(D86-1)-1)+G86,F86*(2^D86-1)+G86)</f>
+        <f t="shared" si="6"/>
         <v>16383.5</v>
       </c>
     </row>
@@ -4768,18 +4900,18 @@
         <v>-1</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <f>IF(C87,F87*(-2^(D87-1))+G87,0)</f>
+        <f t="shared" si="5"/>
         <v>-16384</v>
       </c>
       <c r="I87" s="1">
-        <f>IF(C87,F87*(2^(D87-1)-1)+G87,F87*(2^D87-1)+G87)</f>
+        <f t="shared" si="6"/>
         <v>16383.5</v>
       </c>
     </row>
@@ -4800,18 +4932,18 @@
         <v>-6</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G88" s="1">
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <f>IF(C88,F88*(-2^(D88-1))+G88,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I88" s="1">
-        <f>IF(C88,F88*(2^(D88-1)-1)+G88,F88*(2^D88-1)+G88)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4832,18 +4964,18 @@
         <v>-6</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G89" s="1">
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <f>IF(C89,F89*(-2^(D89-1))+G89,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I89" s="1">
-        <f>IF(C89,F89*(2^(D89-1)-1)+G89,F89*(2^D89-1)+G89)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4864,18 +4996,18 @@
         <v>-6</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G90" s="1">
         <v>0</v>
       </c>
       <c r="H90" s="1">
-        <f>IF(C90,F90*(-2^(D90-1))+G90,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I90" s="1">
-        <f>IF(C90,F90*(2^(D90-1)-1)+G90,F90*(2^D90-1)+G90)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4896,18 +5028,18 @@
         <v>-3</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
       <c r="G91" s="1">
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <f>IF(C91,F91*(-2^(D91-1))+G91,0)</f>
+        <f t="shared" si="5"/>
         <v>-4096</v>
       </c>
       <c r="I91" s="1">
-        <f>IF(C91,F91*(2^(D91-1)-1)+G91,F91*(2^D91-1)+G91)</f>
+        <f t="shared" si="6"/>
         <v>4095.875</v>
       </c>
     </row>
@@ -4928,18 +5060,18 @@
         <v>-3</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
       <c r="G92" s="1">
         <v>0</v>
       </c>
       <c r="H92" s="1">
-        <f>IF(C92,F92*(-2^(D92-1))+G92,0)</f>
+        <f t="shared" si="5"/>
         <v>-4096</v>
       </c>
       <c r="I92" s="1">
-        <f>IF(C92,F92*(2^(D92-1)-1)+G92,F92*(2^D92-1)+G92)</f>
+        <f t="shared" si="6"/>
         <v>4095.875</v>
       </c>
     </row>
@@ -4960,18 +5092,18 @@
         <v>-6</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G93" s="1">
         <v>0</v>
       </c>
       <c r="H93" s="1">
-        <f>IF(C93,F93*(-2^(D93-1))+G93,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I93" s="1">
-        <f>IF(C93,F93*(2^(D93-1)-1)+G93,F93*(2^D93-1)+G93)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -4992,18 +5124,18 @@
         <v>-5</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.125E-2</v>
       </c>
       <c r="G94" s="1">
         <v>0</v>
       </c>
       <c r="H94" s="1">
-        <f>IF(C94,F94*(-2^(D94-1))+G94,0)</f>
+        <f t="shared" si="5"/>
         <v>-1024</v>
       </c>
       <c r="I94" s="1">
-        <f>IF(C94,F94*(2^(D94-1)-1)+G94,F94*(2^D94-1)+G94)</f>
+        <f t="shared" si="6"/>
         <v>1023.96875</v>
       </c>
     </row>
@@ -5024,18 +5156,18 @@
         <v>-6</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
       </c>
       <c r="H95" s="1">
-        <f>IF(C95,F95*(-2^(D95-1))+G95,0)</f>
+        <f t="shared" si="5"/>
         <v>-512</v>
       </c>
       <c r="I95" s="1">
-        <f>IF(C95,F95*(2^(D95-1)-1)+G95,F95*(2^D95-1)+G95)</f>
+        <f t="shared" si="6"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -5056,18 +5188,18 @@
         <v>-4</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
       </c>
       <c r="H96" s="1">
-        <f>IF(C96,F96*(-2^(D96-1))+G96,0)</f>
+        <f t="shared" si="5"/>
         <v>-2048</v>
       </c>
       <c r="I96" s="1">
-        <f>IF(C96,F96*(2^(D96-1)-1)+G96,F96*(2^D96-1)+G96)</f>
+        <f t="shared" si="6"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -5088,18 +5220,18 @@
         <v>-4</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
       </c>
       <c r="H97" s="1">
-        <f>IF(C97,F97*(-2^(D97-1))+G97,0)</f>
+        <f t="shared" si="5"/>
         <v>-2048</v>
       </c>
       <c r="I97" s="1">
-        <f>IF(C97,F97*(2^(D97-1)-1)+G97,F97*(2^D97-1)+G97)</f>
+        <f t="shared" si="6"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -5120,18 +5252,18 @@
         <v>-4</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
       </c>
       <c r="H98" s="1">
-        <f>IF(C98,F98*(-2^(D98-1))+G98,0)</f>
+        <f t="shared" si="5"/>
         <v>-2048</v>
       </c>
       <c r="I98" s="1">
-        <f>IF(C98,F98*(2^(D98-1)-1)+G98,F98*(2^D98-1)+G98)</f>
+        <f t="shared" si="6"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -5152,18 +5284,18 @@
         <v>-6</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G99" s="1">
         <v>0</v>
       </c>
       <c r="H99" s="1">
-        <f>IF(C99,F99*(-2^(D99-1))+G99,0)</f>
+        <f t="shared" ref="H99:H111" si="8">IF(C99,F99*(-2^(D99-1))+G99,0)</f>
         <v>-512</v>
       </c>
       <c r="I99" s="1">
-        <f>IF(C99,F99*(2^(D99-1)-1)+G99,F99*(2^D99-1)+G99)</f>
+        <f t="shared" ref="I99:I111" si="9">IF(C99,F99*(2^(D99-1)-1)+G99,F99*(2^D99-1)+G99)</f>
         <v>511.984375</v>
       </c>
     </row>
@@ -5184,18 +5316,18 @@
         <v>-4</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <f>IF(C100,F100*(-2^(D100-1))+G100,0)</f>
+        <f t="shared" si="8"/>
         <v>-2048</v>
       </c>
       <c r="I100" s="1">
-        <f>IF(C100,F100*(2^(D100-1)-1)+G100,F100*(2^D100-1)+G100)</f>
+        <f t="shared" si="9"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -5216,18 +5348,18 @@
         <v>-6</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G101" s="1">
         <v>0</v>
       </c>
       <c r="H101" s="1">
-        <f>IF(C101,F101*(-2^(D101-1))+G101,0)</f>
+        <f t="shared" si="8"/>
         <v>-512</v>
       </c>
       <c r="I101" s="1">
-        <f>IF(C101,F101*(2^(D101-1)-1)+G101,F101*(2^D101-1)+G101)</f>
+        <f t="shared" si="9"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -5248,18 +5380,18 @@
         <v>-6</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G102" s="1">
         <v>0</v>
       </c>
       <c r="H102" s="1">
-        <f>IF(C102,F102*(-2^(D102-1))+G102,0)</f>
+        <f t="shared" si="8"/>
         <v>-512</v>
       </c>
       <c r="I102" s="1">
-        <f>IF(C102,F102*(2^(D102-1)-1)+G102,F102*(2^D102-1)+G102)</f>
+        <f t="shared" si="9"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -5280,18 +5412,18 @@
         <v>-6</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G103" s="1">
         <v>0</v>
       </c>
       <c r="H103" s="1">
-        <f>IF(C103,F103*(-2^(D103-1))+G103,0)</f>
+        <f t="shared" si="8"/>
         <v>-512</v>
       </c>
       <c r="I103" s="1">
-        <f>IF(C103,F103*(2^(D103-1)-1)+G103,F103*(2^D103-1)+G103)</f>
+        <f t="shared" si="9"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -5312,18 +5444,18 @@
         <v>-6</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G104" s="1">
         <v>0</v>
       </c>
       <c r="H104" s="1">
-        <f>IF(C104,F104*(-2^(D104-1))+G104,0)</f>
+        <f t="shared" si="8"/>
         <v>-512</v>
       </c>
       <c r="I104" s="1">
-        <f>IF(C104,F104*(2^(D104-1)-1)+G104,F104*(2^D104-1)+G104)</f>
+        <f t="shared" si="9"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -5344,18 +5476,18 @@
         <v>-6</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G105" s="1">
         <v>0</v>
       </c>
       <c r="H105" s="1">
-        <f>IF(C105,F105*(-2^(D105-1))+G105,0)</f>
+        <f t="shared" si="8"/>
         <v>-512</v>
       </c>
       <c r="I105" s="1">
-        <f>IF(C105,F105*(2^(D105-1)-1)+G105,F105*(2^D105-1)+G105)</f>
+        <f t="shared" si="9"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -5376,18 +5508,18 @@
         <v>-6</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G106" s="1">
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <f>IF(C106,F106*(-2^(D106-1))+G106,0)</f>
+        <f t="shared" si="8"/>
         <v>-512</v>
       </c>
       <c r="I106" s="1">
-        <f>IF(C106,F106*(2^(D106-1)-1)+G106,F106*(2^D106-1)+G106)</f>
+        <f t="shared" si="9"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -5408,18 +5540,18 @@
         <v>-4</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="G107" s="1">
         <v>0</v>
       </c>
       <c r="H107" s="1">
-        <f>IF(C107,F107*(-2^(D107-1))+G107,0)</f>
+        <f t="shared" si="8"/>
         <v>-2048</v>
       </c>
       <c r="I107" s="1">
-        <f>IF(C107,F107*(2^(D107-1)-1)+G107,F107*(2^D107-1)+G107)</f>
+        <f t="shared" si="9"/>
         <v>2047.9375</v>
       </c>
     </row>
@@ -5440,18 +5572,18 @@
         <v>-4</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="G108" s="1">
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <f>IF(C108,F108*(-2^(D108-1))+G108,0)</f>
+        <f t="shared" si="8"/>
         <v>-134217728</v>
       </c>
       <c r="I108" s="1">
-        <f>IF(C108,F108*(2^(D108-1)-1)+G108,F108*(2^D108-1)+G108)</f>
+        <f t="shared" si="9"/>
         <v>134217727.9375</v>
       </c>
     </row>
@@ -5472,18 +5604,18 @@
         <v>-6</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G109" s="1">
         <v>0</v>
       </c>
       <c r="H109" s="1">
-        <f>IF(C109,F109*(-2^(D109-1))+G109,0)</f>
+        <f t="shared" si="8"/>
         <v>-512</v>
       </c>
       <c r="I109" s="1">
-        <f>IF(C109,F109*(2^(D109-1)-1)+G109,F109*(2^D109-1)+G109)</f>
+        <f t="shared" si="9"/>
         <v>511.984375</v>
       </c>
     </row>
@@ -5504,19 +5636,467 @@
         <v>-4</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="G110" s="1">
         <v>0</v>
       </c>
       <c r="H110" s="1">
-        <f>IF(C110,F110*(-2^(D110-1))+G110,0)</f>
+        <f t="shared" si="8"/>
         <v>-2048</v>
       </c>
       <c r="I110" s="1">
-        <f>IF(C110,F110*(2^(D110-1)-1)+G110,F110*(2^D110-1)+G110)</f>
+        <f t="shared" si="9"/>
         <v>2047.9375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111" s="12">
+        <v>1</v>
+      </c>
+      <c r="D111" s="12">
+        <v>16</v>
+      </c>
+      <c r="E111" s="12">
+        <v>-3</v>
+      </c>
+      <c r="F111" s="12">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="G111" s="12">
+        <v>0</v>
+      </c>
+      <c r="H111" s="12">
+        <f t="shared" si="8"/>
+        <v>-4096</v>
+      </c>
+      <c r="I111" s="12">
+        <f t="shared" si="9"/>
+        <v>4095.875</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C112" s="12">
+        <v>0</v>
+      </c>
+      <c r="D112" s="12">
+        <v>16</v>
+      </c>
+      <c r="E112" s="12">
+        <v>-3</v>
+      </c>
+      <c r="F112" s="12">
+        <f t="shared" ref="F112:F117" si="10">2^E112</f>
+        <v>0.125</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0</v>
+      </c>
+      <c r="H112" s="12">
+        <f t="shared" ref="H112:H117" si="11">IF(C112,F112*(-2^(D112-1))+G112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="12">
+        <f t="shared" ref="I112:I117" si="12">IF(C112,F112*(2^(D112-1)-1)+G112,F112*(2^D112-1)+G112)</f>
+        <v>8191.875</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C113" s="12">
+        <v>1</v>
+      </c>
+      <c r="D113" s="12">
+        <v>16</v>
+      </c>
+      <c r="E113" s="12">
+        <v>-7</v>
+      </c>
+      <c r="F113" s="12">
+        <f t="shared" si="10"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G113" s="12">
+        <v>0</v>
+      </c>
+      <c r="H113" s="12">
+        <f t="shared" si="11"/>
+        <v>-256</v>
+      </c>
+      <c r="I113" s="12">
+        <f t="shared" si="12"/>
+        <v>255.9921875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" s="12">
+        <v>0</v>
+      </c>
+      <c r="D114" s="12">
+        <v>16</v>
+      </c>
+      <c r="E114" s="12">
+        <v>-7</v>
+      </c>
+      <c r="F114" s="12">
+        <f t="shared" ref="F114:F115" si="13">2^E114</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G114" s="12">
+        <v>0</v>
+      </c>
+      <c r="H114" s="12">
+        <f t="shared" ref="H114:H115" si="14">IF(C114,F114*(-2^(D114-1))+G114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="12">
+        <f t="shared" ref="I114:I115" si="15">IF(C114,F114*(2^(D114-1)-1)+G114,F114*(2^D114-1)+G114)</f>
+        <v>511.9921875</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="12">
+        <v>1</v>
+      </c>
+      <c r="D115" s="12">
+        <v>16</v>
+      </c>
+      <c r="E115" s="12">
+        <v>-10</v>
+      </c>
+      <c r="F115" s="12">
+        <f t="shared" si="13"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G115" s="12">
+        <v>0</v>
+      </c>
+      <c r="H115" s="12">
+        <f t="shared" si="14"/>
+        <v>-32</v>
+      </c>
+      <c r="I115" s="12">
+        <f t="shared" si="15"/>
+        <v>31.9990234375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0</v>
+      </c>
+      <c r="D116" s="12">
+        <v>16</v>
+      </c>
+      <c r="E116" s="12">
+        <v>-10</v>
+      </c>
+      <c r="F116" s="12">
+        <f t="shared" ref="F116" si="16">2^E116</f>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0</v>
+      </c>
+      <c r="H116" s="12">
+        <f t="shared" ref="H116" si="17">IF(C116,F116*(-2^(D116-1))+G116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I116" s="12">
+        <f t="shared" ref="I116" si="18">IF(C116,F116*(2^(D116-1)-1)+G116,F116*(2^D116-1)+G116)</f>
+        <v>63.9990234375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="12">
+        <v>1</v>
+      </c>
+      <c r="D117" s="12">
+        <v>32</v>
+      </c>
+      <c r="E117" s="12">
+        <v>-3</v>
+      </c>
+      <c r="F117" s="12">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0</v>
+      </c>
+      <c r="H117" s="12">
+        <f t="shared" si="11"/>
+        <v>-268435456</v>
+      </c>
+      <c r="I117" s="12">
+        <f t="shared" si="12"/>
+        <v>268435455.875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" s="12">
+        <v>0</v>
+      </c>
+      <c r="D118" s="12">
+        <v>32</v>
+      </c>
+      <c r="E118" s="12">
+        <v>-3</v>
+      </c>
+      <c r="F118" s="12">
+        <f t="shared" ref="F118:F119" si="19">2^E118</f>
+        <v>0.125</v>
+      </c>
+      <c r="G118" s="12">
+        <v>0</v>
+      </c>
+      <c r="H118" s="12">
+        <f t="shared" ref="H118:H119" si="20">IF(C118,F118*(-2^(D118-1))+G118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I118" s="12">
+        <f t="shared" ref="I118:I119" si="21">IF(C118,F118*(2^(D118-1)-1)+G118,F118*(2^D118-1)+G118)</f>
+        <v>536870911.875</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C119" s="12">
+        <v>1</v>
+      </c>
+      <c r="D119" s="12">
+        <v>32</v>
+      </c>
+      <c r="E119" s="12">
+        <v>-7</v>
+      </c>
+      <c r="F119" s="12">
+        <f t="shared" si="19"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G119" s="12">
+        <v>0</v>
+      </c>
+      <c r="H119" s="12">
+        <f t="shared" si="20"/>
+        <v>-16777216</v>
+      </c>
+      <c r="I119" s="12">
+        <f t="shared" si="21"/>
+        <v>16777215.9921875</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C120" s="12">
+        <v>0</v>
+      </c>
+      <c r="D120" s="12">
+        <v>32</v>
+      </c>
+      <c r="E120" s="12">
+        <v>-7</v>
+      </c>
+      <c r="F120" s="12">
+        <f t="shared" ref="F120:F122" si="22">2^E120</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0</v>
+      </c>
+      <c r="H120" s="12">
+        <f t="shared" ref="H120:H122" si="23">IF(C120,F120*(-2^(D120-1))+G120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="12">
+        <f t="shared" ref="I120:I122" si="24">IF(C120,F120*(2^(D120-1)-1)+G120,F120*(2^D120-1)+G120)</f>
+        <v>33554431.9921875</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121" s="12">
+        <v>1</v>
+      </c>
+      <c r="D121" s="12">
+        <v>32</v>
+      </c>
+      <c r="E121" s="12">
+        <v>-10</v>
+      </c>
+      <c r="F121" s="12">
+        <f t="shared" si="22"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G121" s="12">
+        <v>0</v>
+      </c>
+      <c r="H121" s="12">
+        <f t="shared" si="23"/>
+        <v>-2097152</v>
+      </c>
+      <c r="I121" s="12">
+        <f t="shared" si="24"/>
+        <v>2097151.9990234375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122" s="12">
+        <v>0</v>
+      </c>
+      <c r="D122" s="12">
+        <v>32</v>
+      </c>
+      <c r="E122" s="12">
+        <v>-10</v>
+      </c>
+      <c r="F122" s="12">
+        <f t="shared" si="22"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G122" s="12">
+        <v>0</v>
+      </c>
+      <c r="H122" s="12">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="12">
+        <f t="shared" si="24"/>
+        <v>4194303.9990234375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" s="12">
+        <v>1</v>
+      </c>
+      <c r="D123" s="12">
+        <v>32</v>
+      </c>
+      <c r="E123" s="12">
+        <v>-13</v>
+      </c>
+      <c r="F123" s="12">
+        <f t="shared" ref="F123:F124" si="25">2^E123</f>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="G123" s="12">
+        <v>0</v>
+      </c>
+      <c r="H123" s="12">
+        <f t="shared" ref="H123:H124" si="26">IF(C123,F123*(-2^(D123-1))+G123,0)</f>
+        <v>-262144</v>
+      </c>
+      <c r="I123" s="12">
+        <f t="shared" ref="I123:I124" si="27">IF(C123,F123*(2^(D123-1)-1)+G123,F123*(2^D123-1)+G123)</f>
+        <v>262143.99987792969</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C124" s="12">
+        <v>0</v>
+      </c>
+      <c r="D124" s="12">
+        <v>32</v>
+      </c>
+      <c r="E124" s="12">
+        <v>-13</v>
+      </c>
+      <c r="F124" s="12">
+        <f t="shared" si="25"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="G124" s="12">
+        <v>0</v>
+      </c>
+      <c r="H124" s="12">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="12">
+        <f t="shared" si="27"/>
+        <v>524287.99987792969</v>
       </c>
     </row>
   </sheetData>
@@ -5646,19 +6226,19 @@
       <c r="A5" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5693,7 +6273,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/cm/DatatypeDef.xlsx
+++ b/cm/DatatypeDef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DD70BB-E5F7-4568-88D9-131CC683AF8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2F6A11-438B-4C88-84EF-E0FF0B7E5F4B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Built-in" sheetId="4" r:id="rId1"/>
@@ -710,10 +710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VoltV1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Current_A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1010,14 +1006,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pin_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fault_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周期，微秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1292,10 +1280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VoltV2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电压，V，稍大范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1477,6 +1461,22 @@
   </si>
   <si>
     <t>u32Sp1R530M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volt_V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volt_V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2130,8 +2130,8 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2177,10 +2177,10 @@
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>18</v>
@@ -2192,7 +2192,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2296,7 +2296,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C7" s="12">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>101</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
@@ -2552,7 +2552,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>47</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2965,10 +2965,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C46" s="13">
         <v>1</v>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C47" s="13">
         <v>1</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="13" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>45</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="13" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C49" s="13">
         <v>1</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>81</v>
@@ -3736,7 +3736,7 @@
         <v>80</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C51" s="13">
         <v>1</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>82</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C53" s="13">
         <v>1</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>76</v>
@@ -3861,10 +3861,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>77</v>
@@ -3925,10 +3925,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>78</v>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -4056,7 +4056,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>79</v>
@@ -4120,7 +4120,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -4277,10 +4277,10 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -4309,10 +4309,10 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -4373,10 +4373,10 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -4437,10 +4437,10 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -4565,10 +4565,10 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -4597,10 +4597,10 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -4629,10 +4629,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -4661,10 +4661,10 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -4725,10 +4725,10 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -4789,10 +4789,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -4917,10 +4917,10 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -4949,10 +4949,10 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -4981,10 +4981,10 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -5013,10 +5013,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -5080,7 +5080,7 @@
         <v>54</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -5141,10 +5141,10 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -5173,10 +5173,10 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -5205,10 +5205,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -5269,10 +5269,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -5333,10 +5333,10 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -5365,10 +5365,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5429,10 +5429,10 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -5461,10 +5461,10 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -5493,10 +5493,10 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -5653,10 +5653,10 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C111" s="12">
         <v>1</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C112" s="12">
         <v>0</v>
@@ -5717,10 +5717,10 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C113" s="12">
         <v>1</v>
@@ -5749,10 +5749,10 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C114" s="12">
         <v>0</v>
@@ -5781,10 +5781,10 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C115" s="12">
         <v>1</v>
@@ -5813,10 +5813,10 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C116" s="12">
         <v>0</v>
@@ -5845,10 +5845,10 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C117" s="12">
         <v>1</v>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C118" s="12">
         <v>0</v>
@@ -5909,10 +5909,10 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C119" s="12">
         <v>1</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C120" s="12">
         <v>0</v>
@@ -5973,10 +5973,10 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C121" s="12">
         <v>1</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C122" s="12">
         <v>0</v>
@@ -6037,10 +6037,10 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C123" s="12">
         <v>1</v>
@@ -6069,10 +6069,10 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C124" s="12">
         <v>0</v>
@@ -6120,7 +6120,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6210,56 +6210,56 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>230</v>
-      </c>
       <c r="F5" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6273,7 +6273,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6303,29 +6303,29 @@
         <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6336,29 +6336,29 @@
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6369,7 +6369,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6380,7 +6380,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6391,7 +6391,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/cm/DatatypeDef.xlsx
+++ b/cm/DatatypeDef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2F6A11-438B-4C88-84EF-E0FF0B7E5F4B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4CA9D-8B9E-4DEF-BB11-C93C13E9B6BC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Built-in" sheetId="4" r:id="rId1"/>
@@ -2130,8 +2130,8 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E116" sqref="E116"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
